--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_NOx.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>193.4539602831472</v>
+        <v>371.8486302448516</v>
       </c>
       <c r="C2">
-        <v>0.2756253926653134</v>
+        <v>0.5297949164405126</v>
       </c>
       <c r="D2">
-        <v>160.0227942401664</v>
+        <v>307.5887242580444</v>
       </c>
       <c r="E2">
-        <v>10.69536188902979</v>
+        <v>20.55815069687763</v>
       </c>
       <c r="F2">
-        <v>232.3655125057547</v>
+        <v>446.6426917026783</v>
       </c>
       <c r="G2">
-        <v>241.6611479384051</v>
+        <v>464.5103502289103</v>
       </c>
       <c r="H2">
-        <v>12.21300981931224</v>
+        <v>23.47530629939659</v>
       </c>
       <c r="I2">
-        <v>850.6874120684807</v>
+        <v>1635.153648347199</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>198.6640786514287</v>
+        <v>381.8632889048422</v>
       </c>
       <c r="C3">
-        <v>0.3266671320477788</v>
+        <v>0.6279050861517186</v>
       </c>
       <c r="D3">
-        <v>123.0944571078203</v>
+        <v>236.6067109677264</v>
       </c>
       <c r="E3">
-        <v>14.70612259741596</v>
+        <v>28.26745720820673</v>
       </c>
       <c r="F3">
-        <v>201.5044678760843</v>
+        <v>387.3229592109162</v>
       </c>
       <c r="G3">
-        <v>205.5508614648503</v>
+        <v>395.1007576659697</v>
       </c>
       <c r="H3">
-        <v>5.234147065419532</v>
+        <v>10.06084555688425</v>
       </c>
       <c r="I3">
-        <v>749.0808018950669</v>
+        <v>1439.849924600697</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>200.702820621626</v>
+        <v>385.7820683804905</v>
       </c>
       <c r="C4">
-        <v>0.3879172193067374</v>
+        <v>0.7456372898051657</v>
       </c>
       <c r="D4">
-        <v>131.3007542483417</v>
+        <v>252.3804916989083</v>
       </c>
       <c r="E4">
-        <v>14.70612259741596</v>
+        <v>28.26745720820673</v>
       </c>
       <c r="F4">
-        <v>192.4276900438281</v>
+        <v>369.8759790662805</v>
       </c>
       <c r="G4">
-        <v>227.772576217807</v>
+        <v>437.8143530893179</v>
       </c>
       <c r="H4">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I4">
-        <v>770.7873123252718</v>
+        <v>1481.573217104265</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>235.1349072293991</v>
+        <v>451.9658995247734</v>
       </c>
       <c r="C5">
-        <v>0.347083827800765</v>
+        <v>0.667149154036201</v>
       </c>
       <c r="D5">
-        <v>184.6416856617305</v>
+        <v>354.9100664515898</v>
       </c>
       <c r="E5">
-        <v>20.05380354193085</v>
+        <v>38.54653255664552</v>
       </c>
       <c r="F5">
-        <v>250.5190681702668</v>
+        <v>481.53665199195</v>
       </c>
       <c r="G5">
-        <v>238.8834335942854</v>
+        <v>459.1711508009918</v>
       </c>
       <c r="H5">
-        <v>13.95772550778542</v>
+        <v>26.82892148502467</v>
       </c>
       <c r="I5">
-        <v>943.5377075331988</v>
+        <v>1813.626371965011</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>230.3778426322725</v>
+        <v>442.8220807482607</v>
       </c>
       <c r="C6">
-        <v>0.2960420884182995</v>
+        <v>0.5690389843249949</v>
       </c>
       <c r="D6">
-        <v>164.1259428104272</v>
+        <v>315.4756146236355</v>
       </c>
       <c r="E6">
-        <v>17.3799630696734</v>
+        <v>33.40699488242613</v>
       </c>
       <c r="F6">
-        <v>243.257645904462</v>
+        <v>467.5790678762412</v>
       </c>
       <c r="G6">
-        <v>241.6611479384051</v>
+        <v>464.5103502289103</v>
       </c>
       <c r="H6">
-        <v>10.46829413083906</v>
+        <v>20.1216911137685</v>
       </c>
       <c r="I6">
-        <v>907.5668785744975</v>
+        <v>1744.484838457568</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>262.318133498694</v>
+        <v>504.2162925334177</v>
       </c>
       <c r="C7">
-        <v>0.2858337405418064</v>
+        <v>0.5494169503827538</v>
       </c>
       <c r="D7">
-        <v>176.4353885212092</v>
+        <v>339.136285720408</v>
       </c>
       <c r="E7">
-        <v>18.71688330580213</v>
+        <v>35.97676371953582</v>
       </c>
       <c r="F7">
-        <v>199.6891123096329</v>
+        <v>383.8335631819891</v>
       </c>
       <c r="G7">
-        <v>213.8840044972091</v>
+        <v>411.1183559497252</v>
       </c>
       <c r="H7">
-        <v>17.44715688473177</v>
+        <v>33.53615185628083</v>
       </c>
       <c r="I7">
-        <v>888.7765127578209</v>
+        <v>1708.366829911739</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>291.3135748526081</v>
+        <v>559.9500450759716</v>
       </c>
       <c r="C8">
-        <v>0.224583653282848</v>
+        <v>0.4316847467293065</v>
       </c>
       <c r="D8">
-        <v>242.08576564538</v>
+        <v>465.3265315698621</v>
       </c>
       <c r="E8">
-        <v>30.74916543096064</v>
+        <v>59.10468325352316</v>
       </c>
       <c r="F8">
-        <v>214.2119568412427</v>
+        <v>411.7487314134064</v>
       </c>
       <c r="G8">
-        <v>149.9965745824583</v>
+        <v>288.3167691075995</v>
       </c>
       <c r="H8">
-        <v>19.19187257320494</v>
+        <v>36.88976704190892</v>
       </c>
       <c r="I8">
-        <v>947.7734935791374</v>
+        <v>1821.768212209001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>337.7515863959866</v>
+        <v>649.2111331324057</v>
       </c>
       <c r="C9">
-        <v>0.1429168702709032</v>
+        <v>0.2747084751913769</v>
       </c>
       <c r="D9">
-        <v>201.0542799427732</v>
+        <v>386.4576279139533</v>
       </c>
       <c r="E9">
-        <v>37.43376661160426</v>
+        <v>71.95352743907165</v>
       </c>
       <c r="F9">
-        <v>105.2906228541701</v>
+        <v>202.384969677776</v>
       </c>
       <c r="G9">
-        <v>130.5525741736212</v>
+        <v>250.9423731121699</v>
       </c>
       <c r="H9">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I9">
-        <v>819.2046096023188</v>
+        <v>1574.63880049308</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>378.2998989143514</v>
+        <v>727.1513027036333</v>
       </c>
       <c r="C10">
-        <v>0.1327085223944102</v>
+        <v>0.2550864412491357</v>
       </c>
       <c r="D10">
-        <v>127.197605678081</v>
+        <v>244.4936013333175</v>
       </c>
       <c r="E10">
-        <v>54.81372968127766</v>
+        <v>105.3605223214978</v>
       </c>
       <c r="F10">
-        <v>70.79886709159716</v>
+        <v>136.0864451281599</v>
       </c>
       <c r="G10">
-        <v>147.2188602383387</v>
+        <v>282.977569679681</v>
       </c>
       <c r="H10">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I10">
-        <v>781.9511015029867</v>
+        <v>1503.031757978795</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>262.9977141554262</v>
+        <v>505.5225523586338</v>
       </c>
       <c r="C11">
-        <v>0.1735419139003825</v>
+        <v>0.3335745770181005</v>
       </c>
       <c r="D11">
-        <v>65.65037712417084</v>
+        <v>126.1902458494542</v>
       </c>
       <c r="E11">
-        <v>53.47680944514893</v>
+        <v>102.7907534843881</v>
       </c>
       <c r="F11">
-        <v>72.61422265804835</v>
+        <v>139.575841157087</v>
       </c>
       <c r="G11">
-        <v>149.9965745824583</v>
+        <v>288.3167691075995</v>
       </c>
       <c r="H11">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I11">
-        <v>608.3986712560994</v>
+        <v>1169.436966905437</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>208.6312616168369</v>
+        <v>401.021766341345</v>
       </c>
       <c r="C12">
-        <v>0.2143753054063549</v>
+        <v>0.4120627127870653</v>
       </c>
       <c r="D12">
-        <v>98.47556568625632</v>
+        <v>189.2853687741813</v>
       </c>
       <c r="E12">
-        <v>40.10760708386171</v>
+        <v>77.09306511329105</v>
       </c>
       <c r="F12">
-        <v>49.01460029418263</v>
+        <v>94.21369278103373</v>
       </c>
       <c r="G12">
-        <v>208.3285758089699</v>
+        <v>400.439957093888</v>
       </c>
       <c r="I12">
-        <v>604.7719857955137</v>
+        <v>1162.465912816526</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>184.6194117456266</v>
+        <v>354.8672525170429</v>
       </c>
       <c r="C13">
-        <v>0.224583653282848</v>
+        <v>0.4316847467293065</v>
       </c>
       <c r="D13">
-        <v>73.85667426469219</v>
+        <v>141.9640265806359</v>
       </c>
       <c r="E13">
-        <v>13.36920236128723</v>
+        <v>25.69768837109703</v>
       </c>
       <c r="F13">
-        <v>50.82995586063385</v>
+        <v>97.70308880996087</v>
       </c>
       <c r="G13">
-        <v>122.2194311412623</v>
+        <v>234.9247748284144</v>
       </c>
       <c r="I13">
-        <v>445.1192590267851</v>
+        <v>855.5885158538803</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>117.1143998435446</v>
+        <v>225.1121098789091</v>
       </c>
       <c r="C14">
-        <v>0.1837502617768756</v>
+        <v>0.3531966109603417</v>
       </c>
       <c r="D14">
-        <v>53.3409314133888</v>
+        <v>102.5295747526814</v>
       </c>
       <c r="E14">
-        <v>20.05380354193085</v>
+        <v>38.54653255664552</v>
       </c>
       <c r="F14">
-        <v>41.75317802837782</v>
+        <v>80.25610866532503</v>
       </c>
       <c r="G14">
-        <v>141.6634315500994</v>
+        <v>272.2991708238439</v>
       </c>
       <c r="I14">
-        <v>374.1094946391183</v>
+        <v>719.0966932883653</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>74.3008184694055</v>
+        <v>142.8177408902944</v>
       </c>
       <c r="C15">
-        <v>0.1837502617768756</v>
+        <v>0.3531966109603417</v>
       </c>
       <c r="D15">
-        <v>12.30944571078204</v>
+        <v>23.66067109677266</v>
       </c>
       <c r="E15">
-        <v>12.03228212515851</v>
+        <v>23.12791953398731</v>
       </c>
       <c r="F15">
-        <v>19.9689112309633</v>
+        <v>38.38335631819891</v>
       </c>
       <c r="G15">
-        <v>102.7754307324251</v>
+        <v>197.5503788329848</v>
       </c>
       <c r="I15">
-        <v>221.5706385305114</v>
+        <v>425.8932632831985</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>36.47082857797038</v>
+        <v>70.10261061993114</v>
       </c>
       <c r="C16">
-        <v>0.1735419139003825</v>
+        <v>0.3335745770181005</v>
       </c>
       <c r="D16">
-        <v>4.103148570260678</v>
+        <v>7.886890365590886</v>
       </c>
       <c r="E16">
-        <v>9.358441652901066</v>
+        <v>17.98838185976791</v>
       </c>
       <c r="F16">
-        <v>36.30711132902417</v>
+        <v>69.78792057854348</v>
       </c>
       <c r="G16">
-        <v>97.22000204418603</v>
+        <v>186.8719799771478</v>
       </c>
       <c r="H16">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I16">
-        <v>185.3777897767159</v>
+        <v>356.3249731636274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>25.82406495582997</v>
+        <v>49.63787335821209</v>
       </c>
       <c r="C17">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D17">
-        <v>8.206297140521356</v>
+        <v>15.77378073118177</v>
       </c>
       <c r="E17">
-        <v>5.347680944514893</v>
+        <v>10.27907534843881</v>
       </c>
       <c r="F17">
-        <v>38.1224668954754</v>
+        <v>73.27731660747062</v>
       </c>
       <c r="G17">
-        <v>94.44228770006634</v>
+        <v>181.5327805492293</v>
       </c>
       <c r="I17">
-        <v>172.0346727672964</v>
+        <v>330.6774249000128</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>17.89562396061902</v>
+        <v>34.39817539735752</v>
       </c>
       <c r="C18">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D18">
-        <v>12.30944571078204</v>
+        <v>23.66067109677266</v>
       </c>
       <c r="F18">
-        <v>32.67640019612177</v>
+        <v>62.80912852068914</v>
       </c>
       <c r="G18">
-        <v>83.33143032358794</v>
+        <v>160.1759828375553</v>
       </c>
       <c r="I18">
-        <v>146.2741502783697</v>
+        <v>281.161690056028</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>16.30993576157682</v>
+        <v>31.35023580518657</v>
       </c>
       <c r="C19">
-        <v>0.1020834787649309</v>
+        <v>0.196220339422412</v>
       </c>
       <c r="D19">
-        <v>12.30944571078204</v>
+        <v>23.66067109677266</v>
       </c>
       <c r="E19">
-        <v>2.673840472257447</v>
+        <v>5.139537674219406</v>
       </c>
       <c r="F19">
-        <v>30.86104462967055</v>
+        <v>59.31973249176195</v>
       </c>
       <c r="G19">
-        <v>127.7748598295015</v>
+        <v>245.6031736842515</v>
       </c>
       <c r="I19">
-        <v>190.0312098825533</v>
+        <v>365.2695710916145</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>28.08933381160454</v>
+        <v>53.99207277559911</v>
       </c>
       <c r="C20">
-        <v>0.1020834787649309</v>
+        <v>0.196220339422412</v>
       </c>
       <c r="D20">
-        <v>12.30944571078204</v>
+        <v>23.66067109677266</v>
       </c>
       <c r="E20">
-        <v>5.347680944514893</v>
+        <v>10.27907534843881</v>
       </c>
       <c r="F20">
-        <v>47.19924472773142</v>
+        <v>90.72429675210651</v>
       </c>
       <c r="G20">
-        <v>233.3280049060462</v>
+        <v>448.4927519451547</v>
       </c>
       <c r="H20">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I20">
-        <v>328.1205092679172</v>
+        <v>630.6987034431222</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>92.19644243002446</v>
+        <v>177.2159162876519</v>
       </c>
       <c r="C21">
-        <v>0.1020834787649309</v>
+        <v>0.196220339422412</v>
       </c>
       <c r="D21">
-        <v>41.0314857026068</v>
+        <v>78.86890365590888</v>
       </c>
       <c r="E21">
-        <v>26.73840472257447</v>
+        <v>51.39537674219405</v>
       </c>
       <c r="F21">
-        <v>56.27602255998747</v>
+        <v>108.1712768967424</v>
       </c>
       <c r="G21">
-        <v>338.8811499825909</v>
+        <v>651.3823302060583</v>
       </c>
       <c r="H21">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I21">
-        <v>556.9703045650222</v>
+        <v>1070.583639313606</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>205.9129389899073</v>
+        <v>395.7967270404804</v>
       </c>
       <c r="C22">
-        <v>0.0816667830119447</v>
+        <v>0.1569762715379296</v>
       </c>
       <c r="D22">
-        <v>110.7850113970383</v>
+        <v>212.9460398709538</v>
       </c>
       <c r="E22">
-        <v>57.4875701535351</v>
+        <v>110.5000599957172</v>
       </c>
       <c r="F22">
-        <v>156.120578714804</v>
+        <v>300.0880584877369</v>
       </c>
       <c r="G22">
-        <v>366.658293423787</v>
+        <v>704.7743244852431</v>
       </c>
       <c r="H22">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I22">
-        <v>904.0249222159763</v>
+        <v>1737.676646894182</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>321.4416506344098</v>
+        <v>617.8608973272188</v>
       </c>
       <c r="C23">
-        <v>0.1429168702709032</v>
+        <v>0.2747084751913769</v>
       </c>
       <c r="D23">
-        <v>160.0227942401664</v>
+        <v>307.5887242580444</v>
       </c>
       <c r="E23">
-        <v>52.13988920902023</v>
+        <v>100.2209846472784</v>
       </c>
       <c r="F23">
-        <v>172.4587788128648</v>
+        <v>331.4926227480815</v>
       </c>
       <c r="G23">
-        <v>311.1040065413949</v>
+        <v>597.9903359268731</v>
       </c>
       <c r="H23">
-        <v>10.46829413083906</v>
+        <v>20.1216911137685</v>
       </c>
       <c r="I23">
-        <v>1027.778330438966</v>
+        <v>1975.549964496456</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>380.5651677701259</v>
+        <v>731.5055021210206</v>
       </c>
       <c r="C24">
-        <v>0.3062504362947926</v>
+        <v>0.588661018267236</v>
       </c>
       <c r="D24">
-        <v>180.5385370914698</v>
+        <v>347.0231760859989</v>
       </c>
       <c r="E24">
-        <v>56.15064991740638</v>
+        <v>107.9302911586075</v>
       </c>
       <c r="F24">
-        <v>228.7348013728523</v>
+        <v>439.663899644824</v>
       </c>
       <c r="G24">
-        <v>302.7708635090362</v>
+        <v>581.9727376431177</v>
       </c>
       <c r="H24">
-        <v>12.21300981931224</v>
+        <v>23.47530629939659</v>
       </c>
       <c r="I24">
-        <v>1161.279279916497</v>
+        <v>2232.159573971232</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>246.4612515082719</v>
+        <v>473.7368966117083</v>
       </c>
       <c r="C25">
-        <v>0.2041669575298617</v>
+        <v>0.3924406788448241</v>
       </c>
       <c r="D25">
-        <v>188.7448342319911</v>
+        <v>362.7969568171806</v>
       </c>
       <c r="E25">
-        <v>29.41224519483192</v>
+        <v>56.53491441641345</v>
       </c>
       <c r="F25">
-        <v>212.3966012747915</v>
+        <v>408.2593353844795</v>
       </c>
       <c r="G25">
-        <v>322.2148639178735</v>
+        <v>619.3471336385471</v>
       </c>
       <c r="H25">
-        <v>13.95772550778542</v>
+        <v>26.82892148502467</v>
       </c>
       <c r="I25">
-        <v>1013.391688593075</v>
+        <v>1947.896599032198</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>202.7415625918231</v>
+        <v>389.7008478561388</v>
       </c>
       <c r="C26">
-        <v>0.2756253926653134</v>
+        <v>0.5297949164405126</v>
       </c>
       <c r="D26">
-        <v>160.0227942401664</v>
+        <v>307.5887242580444</v>
       </c>
       <c r="E26">
-        <v>12.03228212515851</v>
+        <v>23.12791953398731</v>
       </c>
       <c r="F26">
-        <v>261.4112015689741</v>
+        <v>502.4730281655131</v>
       </c>
       <c r="G26">
-        <v>263.882862691362</v>
+        <v>507.2239456522583</v>
       </c>
       <c r="H26">
-        <v>12.21300981931224</v>
+        <v>23.47530629939659</v>
       </c>
       <c r="I26">
-        <v>912.5793384294617</v>
+        <v>1754.119566681779</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>202.0619819350906</v>
+        <v>388.3945880309229</v>
       </c>
       <c r="C27">
-        <v>0.3164587841712858</v>
+        <v>0.6082830522094774</v>
       </c>
       <c r="D27">
-        <v>118.9913085375597</v>
+        <v>228.7198206021357</v>
       </c>
       <c r="E27">
-        <v>14.70612259741596</v>
+        <v>28.26745720820673</v>
       </c>
       <c r="F27">
-        <v>285.0108239328399</v>
+        <v>547.8351765415663</v>
       </c>
       <c r="G27">
-        <v>266.6605770354815</v>
+        <v>512.5631450801767</v>
       </c>
       <c r="H27">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I27">
-        <v>894.7261355764516</v>
+        <v>1719.80293125773</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>190.0560569994855</v>
+        <v>365.3173311187713</v>
       </c>
       <c r="C28">
-        <v>0.2756253926653134</v>
+        <v>0.5297949164405126</v>
       </c>
       <c r="D28">
-        <v>127.197605678081</v>
+        <v>244.4936013333175</v>
       </c>
       <c r="E28">
-        <v>22.72764401418829</v>
+        <v>43.68607023086494</v>
       </c>
       <c r="F28">
-        <v>212.3966012747915</v>
+        <v>408.2593353844795</v>
       </c>
       <c r="G28">
-        <v>208.3285758089699</v>
+        <v>400.439957093888</v>
       </c>
       <c r="H28">
-        <v>13.95772550778542</v>
+        <v>26.82892148502467</v>
       </c>
       <c r="I28">
-        <v>774.9398346759669</v>
+        <v>1489.555011562787</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>234.9083803438217</v>
+        <v>451.5304795830348</v>
       </c>
       <c r="C29">
-        <v>0.2654170447888203</v>
+        <v>0.5101728824982713</v>
       </c>
       <c r="D29">
-        <v>151.8164970996451</v>
+        <v>291.8149435268628</v>
       </c>
       <c r="E29">
-        <v>17.3799630696734</v>
+        <v>33.40699488242613</v>
       </c>
       <c r="F29">
-        <v>237.8115792051083</v>
+        <v>457.1108797894599</v>
       </c>
       <c r="G29">
-        <v>263.882862691362</v>
+        <v>507.2239456522583</v>
       </c>
       <c r="H29">
-        <v>10.46829413083906</v>
+        <v>20.1216911137685</v>
       </c>
       <c r="I29">
-        <v>916.5329935852384</v>
+        <v>1761.719107430309</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>204.78030456202</v>
+        <v>393.6196273317871</v>
       </c>
       <c r="C30">
-        <v>0.3572921756772581</v>
+        <v>0.6867711879784421</v>
       </c>
       <c r="D30">
-        <v>143.6101999591237</v>
+        <v>276.0411627956809</v>
       </c>
       <c r="E30">
-        <v>16.04304283354468</v>
+        <v>30.83722604531642</v>
       </c>
       <c r="F30">
-        <v>206.9505345754378</v>
+        <v>397.7911472976977</v>
       </c>
       <c r="G30">
-        <v>233.3280049060462</v>
+        <v>448.4927519451547</v>
       </c>
       <c r="H30">
-        <v>13.95772550778542</v>
+        <v>26.82892148502467</v>
       </c>
       <c r="I30">
-        <v>819.027104519635</v>
+        <v>1574.29760808864</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>256.2019075881025</v>
+        <v>492.4599541064725</v>
       </c>
       <c r="C31">
-        <v>0.347083827800765</v>
+        <v>0.667149154036201</v>
       </c>
       <c r="D31">
-        <v>205.1574285130339</v>
+        <v>394.3445182795441</v>
       </c>
       <c r="E31">
-        <v>22.72764401418829</v>
+        <v>43.68607023086494</v>
       </c>
       <c r="F31">
-        <v>192.4276900438281</v>
+        <v>369.8759790662805</v>
       </c>
       <c r="G31">
-        <v>208.3285758089699</v>
+        <v>400.439957093888</v>
       </c>
       <c r="H31">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I31">
-        <v>888.6797611728697</v>
+        <v>1708.180858302343</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>318.7233280074804</v>
+        <v>612.6358580263544</v>
       </c>
       <c r="C32">
-        <v>0.2654170447888203</v>
+        <v>0.5101728824982713</v>
       </c>
       <c r="D32">
-        <v>274.9109542074654</v>
+        <v>528.4216544945892</v>
       </c>
       <c r="E32">
-        <v>32.08608566708936</v>
+        <v>61.67445209063285</v>
       </c>
       <c r="F32">
-        <v>203.3198234425354</v>
+        <v>390.8123552398435</v>
       </c>
       <c r="G32">
-        <v>166.6628606471759</v>
+        <v>320.3519656751105</v>
       </c>
       <c r="H32">
-        <v>24.42601963862448</v>
+        <v>46.95061259879318</v>
       </c>
       <c r="I32">
-        <v>1020.39448865516</v>
+        <v>1961.357071007822</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>380.5651677701259</v>
+        <v>731.5055021210206</v>
       </c>
       <c r="C33">
-        <v>0.2654170447888203</v>
+        <v>0.5101728824982713</v>
       </c>
       <c r="D33">
-        <v>180.5385370914698</v>
+        <v>347.0231760859989</v>
       </c>
       <c r="E33">
-        <v>48.12912850063405</v>
+        <v>92.51167813594925</v>
       </c>
       <c r="F33">
-        <v>134.3363119173895</v>
+        <v>258.215306140611</v>
       </c>
       <c r="G33">
-        <v>127.7748598295015</v>
+        <v>245.6031736842515</v>
       </c>
       <c r="H33">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I33">
-        <v>878.5882849078022</v>
+        <v>1688.783469792842</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>394.6098346759281</v>
+        <v>758.5015385088196</v>
       </c>
       <c r="C34">
-        <v>0.1429168702709032</v>
+        <v>0.2747084751913769</v>
       </c>
       <c r="D34">
-        <v>123.0944571078203</v>
+        <v>236.6067109677264</v>
       </c>
       <c r="E34">
-        <v>60.16141062579257</v>
+        <v>115.6395976699366</v>
       </c>
       <c r="F34">
-        <v>81.6910004903044</v>
+        <v>157.0228213017229</v>
       </c>
       <c r="G34">
-        <v>147.2188602383387</v>
+        <v>282.977569679681</v>
       </c>
       <c r="H34">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I34">
-        <v>808.6631956969283</v>
+        <v>1554.376561788706</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>264.8099292400458</v>
+        <v>509.0059118925431</v>
       </c>
       <c r="C35">
-        <v>0.1633335660238894</v>
+        <v>0.3139525430758593</v>
       </c>
       <c r="D35">
-        <v>61.54722855391014</v>
+        <v>118.3033554838632</v>
       </c>
       <c r="E35">
-        <v>49.46604873676277</v>
+        <v>95.08144697305899</v>
       </c>
       <c r="F35">
-        <v>85.32171162320682</v>
+        <v>164.0016133595772</v>
       </c>
       <c r="G35">
-        <v>166.6628606471759</v>
+        <v>320.3519656751105</v>
       </c>
       <c r="H35">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I35">
-        <v>629.7158280555985</v>
+        <v>1210.411861112857</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>224.7146704928363</v>
+        <v>431.9365822047929</v>
       </c>
       <c r="C36">
-        <v>0.1837502617768756</v>
+        <v>0.3531966109603417</v>
       </c>
       <c r="D36">
-        <v>94.37241711599553</v>
+        <v>181.3984784085903</v>
       </c>
       <c r="E36">
-        <v>41.44452731999042</v>
+        <v>79.66283395040077</v>
       </c>
       <c r="F36">
-        <v>68.98351152514596</v>
+        <v>132.5970490992326</v>
       </c>
       <c r="G36">
-        <v>213.8840044972091</v>
+        <v>411.1183559497252</v>
       </c>
       <c r="H36">
-        <v>5.234147065419532</v>
+        <v>10.06084555688425</v>
       </c>
       <c r="I36">
-        <v>648.8170282783738</v>
+        <v>1247.127341780586</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>191.6417451985277</v>
+        <v>368.3652707109426</v>
       </c>
       <c r="C37">
-        <v>0.1939586096533687</v>
+        <v>0.3728186449025829</v>
       </c>
       <c r="D37">
-        <v>86.1661199754742</v>
+        <v>165.6246976774086</v>
       </c>
       <c r="E37">
-        <v>18.71688330580213</v>
+        <v>35.97676371953582</v>
       </c>
       <c r="F37">
-        <v>43.56853359482903</v>
+        <v>83.74550469425218</v>
       </c>
       <c r="G37">
-        <v>122.2194311412623</v>
+        <v>234.9247748284144</v>
       </c>
       <c r="I37">
-        <v>462.5066718255488</v>
+        <v>889.0098302754562</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>79.73746372326444</v>
+        <v>153.2678194920233</v>
       </c>
       <c r="C38">
-        <v>0.1633335660238894</v>
+        <v>0.3139525430758593</v>
       </c>
       <c r="D38">
-        <v>12.30944571078204</v>
+        <v>23.66067109677266</v>
       </c>
       <c r="E38">
-        <v>16.04304283354468</v>
+        <v>30.83722604531642</v>
       </c>
       <c r="F38">
-        <v>32.67640019612177</v>
+        <v>62.80912852068914</v>
       </c>
       <c r="G38">
-        <v>80.55371597946836</v>
+        <v>154.8367834096368</v>
       </c>
       <c r="I38">
-        <v>221.4834020092052</v>
+        <v>425.7255811075141</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>51.19507614050499</v>
+        <v>98.40490683294678</v>
       </c>
       <c r="C39">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D39">
-        <v>12.30944571078204</v>
+        <v>23.66067109677266</v>
       </c>
       <c r="E39">
-        <v>8.021521416772341</v>
+        <v>15.41861302265821</v>
       </c>
       <c r="F39">
-        <v>16.33820009806088</v>
+        <v>31.40456426034457</v>
       </c>
       <c r="G39">
-        <v>77.77600163534873</v>
+        <v>149.4975839817183</v>
       </c>
       <c r="I39">
-        <v>165.7321201323574</v>
+        <v>318.5629374999206</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>51.64812991165994</v>
+        <v>99.27574671642418</v>
       </c>
       <c r="C40">
-        <v>0.1837502617768756</v>
+        <v>0.3531966109603417</v>
       </c>
       <c r="D40">
-        <v>8.206297140521356</v>
+        <v>15.77378073118177</v>
       </c>
       <c r="E40">
-        <v>9.358441652901066</v>
+        <v>17.98838185976791</v>
       </c>
       <c r="F40">
-        <v>27.23033349676813</v>
+        <v>52.34094043390761</v>
       </c>
       <c r="G40">
-        <v>113.8862881089035</v>
+        <v>218.907176544659</v>
       </c>
       <c r="I40">
-        <v>210.5132405725309</v>
+        <v>404.6392228969008</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>24.46490364236522</v>
+        <v>47.02535370777986</v>
       </c>
       <c r="C41">
-        <v>0.1735419139003825</v>
+        <v>0.3335745770181005</v>
       </c>
       <c r="D41">
-        <v>4.103148570260678</v>
+        <v>7.886890365590886</v>
       </c>
       <c r="E41">
-        <v>6.684601180643616</v>
+        <v>12.84884418554851</v>
       </c>
       <c r="F41">
-        <v>29.04568906321934</v>
+        <v>55.83033646283479</v>
       </c>
       <c r="G41">
-        <v>116.6640024530231</v>
+        <v>224.2463759725773</v>
       </c>
       <c r="I41">
-        <v>181.1358868234124</v>
+        <v>348.1713752713495</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>24.01184987121032</v>
+        <v>46.15451382430246</v>
       </c>
       <c r="C42">
-        <v>0.112291826641424</v>
+        <v>0.2158423733646533</v>
       </c>
       <c r="F42">
-        <v>29.04568906321934</v>
+        <v>55.83033646283479</v>
       </c>
       <c r="G42">
-        <v>102.7754307324251</v>
+        <v>197.5503788329848</v>
       </c>
       <c r="I42">
-        <v>155.9452614934962</v>
+        <v>299.7510714934867</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>19.93436593081611</v>
+        <v>38.31695487300582</v>
       </c>
       <c r="C43">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D43">
-        <v>4.103148570260678</v>
+        <v>7.886890365590886</v>
       </c>
       <c r="E43">
-        <v>4.01076070838617</v>
+        <v>7.709306511329106</v>
       </c>
       <c r="F43">
-        <v>27.23033349676813</v>
+        <v>52.34094043390761</v>
       </c>
       <c r="G43">
-        <v>138.8857172059799</v>
+        <v>266.9599713959255</v>
       </c>
       <c r="I43">
-        <v>194.2562010430995</v>
+        <v>373.3906618852391</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>32.39334463757618</v>
+        <v>62.26505166863443</v>
       </c>
       <c r="C44">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D44">
-        <v>16.41259428104271</v>
+        <v>31.54756146236354</v>
       </c>
       <c r="E44">
-        <v>5.347680944514893</v>
+        <v>10.27907534843881</v>
       </c>
       <c r="F44">
-        <v>45.3838891612802</v>
+        <v>87.23490072317935</v>
       </c>
       <c r="G44">
-        <v>191.6622897442522</v>
+        <v>368.4047605263772</v>
       </c>
       <c r="I44">
-        <v>291.2610488559252</v>
+        <v>559.8490819326468</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>93.55560374348927</v>
+        <v>179.8284359380843</v>
       </c>
       <c r="C45">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D45">
-        <v>53.3409314133888</v>
+        <v>102.5295747526814</v>
       </c>
       <c r="E45">
-        <v>24.06456425031703</v>
+        <v>46.25583906797463</v>
       </c>
       <c r="F45">
-        <v>81.6910004903044</v>
+        <v>157.0228213017229</v>
       </c>
       <c r="G45">
-        <v>402.7685798973417</v>
+        <v>774.183917048184</v>
       </c>
       <c r="H45">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I45">
-        <v>657.2266455705734</v>
+        <v>1263.291935497929</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>212.0291649004986</v>
+        <v>407.5530654674258</v>
       </c>
       <c r="C46">
-        <v>0.03062504362947926</v>
+        <v>0.05886610182672362</v>
       </c>
       <c r="D46">
-        <v>127.197605678081</v>
+        <v>244.4936013333175</v>
       </c>
       <c r="E46">
-        <v>64.17217133417873</v>
+        <v>123.3489041812657</v>
       </c>
       <c r="F46">
-        <v>172.4587788128648</v>
+        <v>331.4926227480815</v>
       </c>
       <c r="G46">
-        <v>444.4342950591358</v>
+        <v>854.2719084669616</v>
       </c>
       <c r="H46">
-        <v>5.234147065419532</v>
+        <v>10.06084555688425</v>
       </c>
       <c r="I46">
-        <v>1025.556787893808</v>
+        <v>1971.279813855763</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>307.3969837286075</v>
+        <v>590.8648609394193</v>
       </c>
       <c r="C47">
-        <v>0.0816667830119447</v>
+        <v>0.1569762715379296</v>
       </c>
       <c r="D47">
-        <v>123.0944571078203</v>
+        <v>236.6067109677264</v>
       </c>
       <c r="E47">
-        <v>53.47680944514893</v>
+        <v>102.7907534843881</v>
       </c>
       <c r="F47">
-        <v>159.7512898477064</v>
+        <v>307.0668505455913</v>
       </c>
       <c r="G47">
-        <v>280.5491487560795</v>
+        <v>539.2591422197696</v>
       </c>
       <c r="H47">
-        <v>8.723578442365886</v>
+        <v>16.76807592814042</v>
       </c>
       <c r="I47">
-        <v>933.0739341107407</v>
+        <v>1793.513370356573</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>347.7187693613947</v>
+        <v>668.3696105689088</v>
       </c>
       <c r="C48">
-        <v>0.1429168702709032</v>
+        <v>0.2747084751913769</v>
       </c>
       <c r="D48">
-        <v>135.4039028186024</v>
+        <v>260.2673820644991</v>
       </c>
       <c r="E48">
-        <v>42.78144755611915</v>
+        <v>82.2326027875105</v>
       </c>
       <c r="F48">
-        <v>183.3509122115722</v>
+        <v>352.4289989216445</v>
       </c>
       <c r="G48">
-        <v>252.7720053148835</v>
+        <v>485.8671479405844</v>
       </c>
       <c r="H48">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I48">
-        <v>965.6593855097891</v>
+        <v>1856.147681129595</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>249.6326279063563</v>
+        <v>479.8327757960503</v>
       </c>
       <c r="C49">
-        <v>0.1735419139003825</v>
+        <v>0.3335745770181005</v>
       </c>
       <c r="D49">
-        <v>155.9196456699057</v>
+        <v>299.7018338924537</v>
       </c>
       <c r="E49">
-        <v>29.41224519483192</v>
+        <v>56.53491441641345</v>
       </c>
       <c r="F49">
-        <v>230.5501569393035</v>
+        <v>443.1532956737511</v>
       </c>
       <c r="G49">
-        <v>341.6588643267106</v>
+        <v>656.7215296339766</v>
       </c>
       <c r="H49">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I49">
-        <v>1010.836513327955</v>
+        <v>1942.98515436092</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_NOx.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>149.4344962666228</v>
+        <v>87.11220247480647</v>
       </c>
       <c r="C2">
-        <v>0.2129082374480564</v>
+        <v>0.1241139492720453</v>
       </c>
       <c r="D2">
-        <v>123.6104218980926</v>
+        <v>72.05816842431447</v>
       </c>
       <c r="E2">
-        <v>8.261686728651753</v>
+        <v>4.816115054221797</v>
       </c>
       <c r="F2">
-        <v>179.4919228337866</v>
+        <v>104.6340511403159</v>
       </c>
       <c r="G2">
-        <v>186.6723837368518</v>
+        <v>108.8198702093896</v>
       </c>
       <c r="H2">
-        <v>9.434001596953768</v>
+        <v>5.49951100845677</v>
       </c>
       <c r="I2">
-        <v>657.1178212984074</v>
+        <v>383.064032260777</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>153.4590787187684</v>
+        <v>89.45831565621229</v>
       </c>
       <c r="C3">
-        <v>0.2523356888273262</v>
+        <v>0.1470980139520537</v>
       </c>
       <c r="D3">
-        <v>95.08493992160966</v>
+        <v>55.42936032639573</v>
       </c>
       <c r="E3">
-        <v>11.35981925189616</v>
+        <v>6.622158199554971</v>
       </c>
       <c r="F3">
-        <v>155.6531518324244</v>
+        <v>90.73734122324271</v>
       </c>
       <c r="G3">
-        <v>158.7788091554831</v>
+        <v>92.5594298332739</v>
       </c>
       <c r="H3">
-        <v>4.043143541551615</v>
+        <v>2.356933289338616</v>
       </c>
       <c r="I3">
-        <v>578.6312781105607</v>
+        <v>337.3106365419703</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>155.0339153304774</v>
+        <v>90.3763599445884</v>
       </c>
       <c r="C4">
-        <v>0.2996486304824498</v>
+        <v>0.1746788915680638</v>
       </c>
       <c r="D4">
-        <v>101.4239359163837</v>
+        <v>59.12465101482213</v>
       </c>
       <c r="E4">
-        <v>11.35981925189616</v>
+        <v>6.622158199554971</v>
       </c>
       <c r="F4">
-        <v>148.6417485967296</v>
+        <v>86.6500736005741</v>
       </c>
       <c r="G4">
-        <v>175.9440858209408</v>
+        <v>102.5658546801143</v>
       </c>
       <c r="H4">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I4">
-        <v>595.3985825746112</v>
+        <v>347.0850651907811</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>181.6311558837874</v>
+        <v>105.8811079260528</v>
       </c>
       <c r="C5">
-        <v>0.2681066693790341</v>
+        <v>0.156291639824057</v>
       </c>
       <c r="D5">
-        <v>142.6274098824146</v>
+        <v>83.14404048959365</v>
       </c>
       <c r="E5">
-        <v>15.49066261622204</v>
+        <v>9.030215726665867</v>
       </c>
       <c r="F5">
-        <v>193.5147293051762</v>
+        <v>112.8085863856531</v>
       </c>
       <c r="G5">
-        <v>184.5267241536696</v>
+        <v>107.5690671035345</v>
       </c>
       <c r="H5">
-        <v>10.78171611080431</v>
+        <v>6.285155438236308</v>
       </c>
       <c r="I5">
-        <v>728.8405046214531</v>
+        <v>424.8744647095602</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>177.9565371231328</v>
+        <v>103.7390045865083</v>
       </c>
       <c r="C6">
-        <v>0.2286792179997643</v>
+        <v>0.1333075751440486</v>
       </c>
       <c r="D6">
-        <v>126.7799198954797</v>
+        <v>73.90581376852768</v>
       </c>
       <c r="E6">
-        <v>13.4252409340591</v>
+        <v>7.82618696311042</v>
       </c>
       <c r="F6">
-        <v>187.9056067166204</v>
+        <v>109.5387722875182</v>
       </c>
       <c r="G6">
-        <v>186.6723837368518</v>
+        <v>108.8198702093896</v>
       </c>
       <c r="H6">
-        <v>8.08628708310323</v>
+        <v>4.713866578677232</v>
       </c>
       <c r="I6">
-        <v>701.0546547072468</v>
+        <v>408.6768219688755</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>202.6289773732425</v>
+        <v>118.1216984377351</v>
       </c>
       <c r="C7">
-        <v>0.2207937277239103</v>
+        <v>0.128710762208047</v>
       </c>
       <c r="D7">
-        <v>136.2884138876406</v>
+        <v>79.44874980116721</v>
       </c>
       <c r="E7">
-        <v>14.45795177514057</v>
+        <v>8.428201344888144</v>
       </c>
       <c r="F7">
-        <v>154.2508711852853</v>
+        <v>89.91988769870898</v>
       </c>
       <c r="G7">
-        <v>165.2157879050298</v>
+        <v>96.31183915083906</v>
       </c>
       <c r="H7">
-        <v>13.47714513850538</v>
+        <v>7.856444297795386</v>
       </c>
       <c r="I7">
-        <v>686.5399409925682</v>
+        <v>400.215531493342</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>225.0266536286614</v>
+        <v>131.1783283168631</v>
       </c>
       <c r="C8">
-        <v>0.1734807860687868</v>
+        <v>0.1011298845920369</v>
       </c>
       <c r="D8">
-        <v>187.0003818458325</v>
+        <v>109.0110753085783</v>
       </c>
       <c r="E8">
-        <v>23.75234934487379</v>
+        <v>13.84633078088767</v>
       </c>
       <c r="F8">
-        <v>165.4691163623971</v>
+        <v>96.45951589497872</v>
       </c>
       <c r="G8">
-        <v>115.8656174918391</v>
+        <v>67.54336771617288</v>
       </c>
       <c r="H8">
-        <v>14.82485965235592</v>
+        <v>8.642088727574924</v>
       </c>
       <c r="I8">
-        <v>732.1124591120285</v>
+        <v>426.7818366296477</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>260.8979320064807</v>
+        <v>152.0893371076539</v>
       </c>
       <c r="C9">
-        <v>0.1103968638619552</v>
+        <v>0.0643553811040235</v>
       </c>
       <c r="D9">
-        <v>155.3054018719625</v>
+        <v>90.53462186644636</v>
       </c>
       <c r="E9">
-        <v>28.91590355028114</v>
+        <v>16.85640268977629</v>
       </c>
       <c r="F9">
-        <v>81.3322775340596</v>
+        <v>47.41230442295566</v>
       </c>
       <c r="G9">
-        <v>100.8460004095636</v>
+        <v>58.78774597518751</v>
       </c>
       <c r="H9">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I9">
-        <v>632.7987702916117</v>
+        <v>368.8873451622418</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>292.219682394918</v>
+        <v>170.3482179542469</v>
       </c>
       <c r="C10">
-        <v>0.1025113735861012</v>
+        <v>0.05975856816802181</v>
       </c>
       <c r="D10">
-        <v>98.25443791899666</v>
+        <v>57.27700567060892</v>
       </c>
       <c r="E10">
-        <v>42.34114448434024</v>
+        <v>24.6825896528867</v>
       </c>
       <c r="F10">
-        <v>54.68894523841935</v>
+        <v>31.880687456815</v>
       </c>
       <c r="G10">
-        <v>113.7199579086568</v>
+        <v>66.29256461031783</v>
       </c>
       <c r="H10">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I10">
-        <v>604.0221083466182</v>
+        <v>352.1121127726025</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>203.153922910479</v>
+        <v>118.4277132005273</v>
       </c>
       <c r="C11">
-        <v>0.1340533346895171</v>
+        <v>0.0781458199120285</v>
       </c>
       <c r="D11">
-        <v>50.71196795819184</v>
+        <v>29.56232550741107</v>
       </c>
       <c r="E11">
-        <v>41.30843364325879</v>
+        <v>24.08057527110899</v>
       </c>
       <c r="F11">
-        <v>56.09122588555832</v>
+        <v>32.69814098134874</v>
       </c>
       <c r="G11">
-        <v>115.8656174918391</v>
+        <v>67.54336771617288</v>
       </c>
       <c r="H11">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I11">
-        <v>469.9606502517177</v>
+        <v>273.96155735604</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>161.1582799315686</v>
+        <v>93.94653217716237</v>
       </c>
       <c r="C12">
-        <v>0.1655952957929328</v>
+        <v>0.09653307165603522</v>
       </c>
       <c r="D12">
-        <v>76.0679519372878</v>
+        <v>44.3434882611166</v>
       </c>
       <c r="E12">
-        <v>30.98132523244407</v>
+        <v>18.06043145333173</v>
       </c>
       <c r="F12">
-        <v>37.86157747275187</v>
+        <v>22.07124516241039</v>
       </c>
       <c r="G12">
-        <v>160.9244687386653</v>
+        <v>93.81023293912898</v>
       </c>
       <c r="I12">
-        <v>467.1591986085106</v>
+        <v>272.3284630648061</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>142.6102042825499</v>
+        <v>83.1340105585097</v>
       </c>
       <c r="C13">
-        <v>0.1734807860687868</v>
+        <v>0.1011298845920369</v>
       </c>
       <c r="D13">
-        <v>57.05096395296582</v>
+        <v>33.25761619583742</v>
       </c>
       <c r="E13">
-        <v>10.3271084108147</v>
+        <v>6.020143817777248</v>
       </c>
       <c r="F13">
-        <v>39.26385811989083</v>
+        <v>22.88869868694411</v>
       </c>
       <c r="G13">
-        <v>94.409021660017</v>
+        <v>55.03533665762233</v>
       </c>
       <c r="I13">
-        <v>343.834637212307</v>
+        <v>200.4369358012829</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>90.46561425040274</v>
+        <v>52.73654412116502</v>
       </c>
       <c r="C14">
-        <v>0.141938824965371</v>
+        <v>0.08274263284803021</v>
       </c>
       <c r="D14">
-        <v>41.20347396603089</v>
+        <v>24.01938947477149</v>
       </c>
       <c r="E14">
-        <v>15.49066261622204</v>
+        <v>9.030215726665867</v>
       </c>
       <c r="F14">
-        <v>32.25245488419603</v>
+        <v>18.80143106427552</v>
       </c>
       <c r="G14">
-        <v>109.4286387422924</v>
+        <v>63.79095839860771</v>
       </c>
       <c r="I14">
-        <v>288.9827832841095</v>
+        <v>168.4612814183336</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>57.39404540451086</v>
+        <v>33.45761406526524</v>
       </c>
       <c r="C15">
-        <v>0.141938824965371</v>
+        <v>0.08274263284803021</v>
       </c>
       <c r="D15">
-        <v>9.508493992160975</v>
+        <v>5.542936032639576</v>
       </c>
       <c r="E15">
-        <v>9.294397569733224</v>
+        <v>5.418129435999521</v>
       </c>
       <c r="F15">
-        <v>15.42508711852854</v>
+        <v>8.991988769870897</v>
       </c>
       <c r="G15">
-        <v>79.38940457774156</v>
+        <v>46.27971491663695</v>
       </c>
       <c r="I15">
-        <v>171.1533674876405</v>
+        <v>99.77312585326021</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>28.17207716501905</v>
+        <v>16.42279226984055</v>
       </c>
       <c r="C16">
-        <v>0.1340533346895171</v>
+        <v>0.0781458199120285</v>
       </c>
       <c r="D16">
-        <v>3.16949799738699</v>
+        <v>1.847645344213192</v>
       </c>
       <c r="E16">
-        <v>7.228975887570285</v>
+        <v>4.214100672444072</v>
       </c>
       <c r="F16">
-        <v>28.04561294277916</v>
+        <v>16.34907049067437</v>
       </c>
       <c r="G16">
-        <v>75.09808541137716</v>
+        <v>43.77810870492684</v>
       </c>
       <c r="H16">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I16">
-        <v>143.1960172526727</v>
+        <v>83.47550773179059</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>19.94793041498243</v>
+        <v>11.62856098609829</v>
       </c>
       <c r="C17">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D17">
-        <v>6.33899599477398</v>
+        <v>3.695290688426383</v>
       </c>
       <c r="E17">
-        <v>4.130843364325877</v>
+        <v>2.408057527110898</v>
       </c>
       <c r="F17">
-        <v>29.44789358991812</v>
+        <v>17.16652401520808</v>
       </c>
       <c r="G17">
-        <v>72.95242582819493</v>
+        <v>42.5273055990718</v>
       </c>
       <c r="I17">
-        <v>132.889058604678</v>
+        <v>77.46711013233946</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>13.82356581389133</v>
+        <v>8.058388753524245</v>
       </c>
       <c r="C18">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D18">
-        <v>9.508493992160975</v>
+        <v>5.542936032639576</v>
       </c>
       <c r="F18">
-        <v>25.24105164850124</v>
+        <v>14.71416344160692</v>
       </c>
       <c r="G18">
-        <v>64.36978749546614</v>
+        <v>37.52409317565159</v>
       </c>
       <c r="I18">
-        <v>112.9902118916748</v>
+        <v>65.86716228103835</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>12.59869289367312</v>
+        <v>7.344354307009446</v>
       </c>
       <c r="C19">
-        <v>0.07885490275853942</v>
+        <v>0.04596812936001678</v>
       </c>
       <c r="D19">
-        <v>9.508493992160975</v>
+        <v>5.542936032639576</v>
       </c>
       <c r="E19">
-        <v>2.065421682162938</v>
+        <v>1.204028763555449</v>
       </c>
       <c r="F19">
-        <v>23.83877100136229</v>
+        <v>13.8967099170732</v>
       </c>
       <c r="G19">
-        <v>98.70034082638144</v>
+        <v>57.53694286933245</v>
       </c>
       <c r="I19">
-        <v>146.7905752984993</v>
+        <v>85.57094001897013</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>21.69774887243702</v>
+        <v>12.64861019540515</v>
       </c>
       <c r="C20">
-        <v>0.07885490275853942</v>
+        <v>0.04596812936001678</v>
       </c>
       <c r="D20">
-        <v>9.508493992160975</v>
+        <v>5.542936032639576</v>
       </c>
       <c r="E20">
-        <v>4.130843364325877</v>
+        <v>2.408057527110898</v>
       </c>
       <c r="F20">
-        <v>36.45929682561291</v>
+        <v>21.25379163787667</v>
       </c>
       <c r="G20">
-        <v>180.2354049873053</v>
+        <v>105.0674608918244</v>
       </c>
       <c r="H20">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I20">
-        <v>253.4583574584511</v>
+        <v>147.7524688439963</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>71.21761121840217</v>
+        <v>41.5160028187895</v>
       </c>
       <c r="C21">
-        <v>0.07885490275853942</v>
+        <v>0.04596812936001678</v>
       </c>
       <c r="D21">
-        <v>31.69497997386991</v>
+        <v>18.47645344213192</v>
       </c>
       <c r="E21">
-        <v>20.65421682162939</v>
+        <v>12.0402876355545</v>
       </c>
       <c r="F21">
-        <v>43.47070006130768</v>
+        <v>25.34105926054527</v>
       </c>
       <c r="G21">
-        <v>261.770469148229</v>
+        <v>152.5979789143165</v>
       </c>
       <c r="H21">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I21">
-        <v>430.2345466400472</v>
+        <v>250.8033946304772</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>159.058497782623</v>
+        <v>92.72247312599423</v>
       </c>
       <c r="C22">
-        <v>0.06308392220683155</v>
+        <v>0.03677450348801342</v>
       </c>
       <c r="D22">
-        <v>85.57644592944871</v>
+        <v>49.88642429375616</v>
       </c>
       <c r="E22">
-        <v>44.40656616650318</v>
+        <v>25.88661841644216</v>
       </c>
       <c r="F22">
-        <v>120.5961356539504</v>
+        <v>70.30100310989972</v>
       </c>
       <c r="G22">
-        <v>283.2270649800511</v>
+        <v>165.1060099728669</v>
       </c>
       <c r="H22">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I22">
-        <v>698.3186524901854</v>
+        <v>407.0818811415654</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>248.2992391128077</v>
+        <v>144.7449828006444</v>
       </c>
       <c r="C23">
-        <v>0.1103968638619552</v>
+        <v>0.0643553811040235</v>
       </c>
       <c r="D23">
-        <v>123.6104218980926</v>
+        <v>72.05816842431447</v>
       </c>
       <c r="E23">
-        <v>40.2757228021773</v>
+        <v>23.47856088933126</v>
       </c>
       <c r="F23">
-        <v>133.216661478201</v>
+        <v>77.65808483070317</v>
       </c>
       <c r="G23">
-        <v>240.3138733164069</v>
+        <v>140.0899478557659</v>
       </c>
       <c r="H23">
-        <v>8.08628708310323</v>
+        <v>4.713866578677232</v>
       </c>
       <c r="I23">
-        <v>793.9126025546507</v>
+        <v>462.8079667605405</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>293.9695008523727</v>
+        <v>171.3682671635537</v>
       </c>
       <c r="C24">
-        <v>0.2365647082756183</v>
+        <v>0.1379043880800503</v>
       </c>
       <c r="D24">
-        <v>139.4579118850276</v>
+        <v>81.29639514538043</v>
       </c>
       <c r="E24">
-        <v>43.37385532542171</v>
+        <v>25.28460403466443</v>
       </c>
       <c r="F24">
-        <v>176.6873615395086</v>
+        <v>102.9991440912485</v>
       </c>
       <c r="G24">
-        <v>233.8768945668603</v>
+        <v>136.3375385382008</v>
       </c>
       <c r="H24">
-        <v>9.434001596953768</v>
+        <v>5.49951100845677</v>
       </c>
       <c r="I24">
-        <v>897.0360904744202</v>
+        <v>522.9233643695846</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>190.3802481710604</v>
+        <v>110.9813539725871</v>
       </c>
       <c r="C25">
-        <v>0.1577098055170788</v>
+        <v>0.09193625872003355</v>
       </c>
       <c r="D25">
-        <v>145.7969078798016</v>
+        <v>84.99168583380678</v>
       </c>
       <c r="E25">
-        <v>22.71963850379231</v>
+        <v>13.24431639910994</v>
       </c>
       <c r="F25">
-        <v>164.0668357152581</v>
+        <v>95.64206237044503</v>
       </c>
       <c r="G25">
-        <v>248.8965116491358</v>
+        <v>145.0931602791862</v>
       </c>
       <c r="H25">
-        <v>10.78171611080431</v>
+        <v>6.285155438236308</v>
       </c>
       <c r="I25">
-        <v>782.7995678353697</v>
+        <v>456.3296705520915</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>156.6087519421866</v>
+        <v>91.29440423296457</v>
       </c>
       <c r="C26">
-        <v>0.2129082374480564</v>
+        <v>0.1241139492720453</v>
       </c>
       <c r="D26">
-        <v>123.6104218980926</v>
+        <v>72.05816842431447</v>
       </c>
       <c r="E26">
-        <v>9.294397569733224</v>
+        <v>5.418129435999521</v>
       </c>
       <c r="F26">
-        <v>201.9284131880099</v>
+        <v>117.7133075328554</v>
       </c>
       <c r="G26">
-        <v>203.8376604023094</v>
+        <v>118.82629505623</v>
       </c>
       <c r="H26">
-        <v>9.434001596953768</v>
+        <v>5.49951100845677</v>
       </c>
       <c r="I26">
-        <v>704.9265548347337</v>
+        <v>410.9339296400927</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>156.0838064049502</v>
+        <v>90.98838947017254</v>
       </c>
       <c r="C27">
-        <v>0.2444501985514722</v>
+        <v>0.1425012010160521</v>
       </c>
       <c r="D27">
-        <v>91.9154419242227</v>
+        <v>53.58171498218255</v>
       </c>
       <c r="E27">
-        <v>11.35981925189616</v>
+        <v>6.622158199554971</v>
       </c>
       <c r="F27">
-        <v>220.1580616008164</v>
+        <v>128.3402033517937</v>
       </c>
       <c r="G27">
-        <v>205.9833199854916</v>
+        <v>120.077098162085</v>
       </c>
       <c r="H27">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I27">
-        <v>691.1357574213307</v>
+        <v>402.894643085923</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>146.8097685804409</v>
+        <v>85.58212866084615</v>
       </c>
       <c r="C28">
-        <v>0.2129082374480564</v>
+        <v>0.1241139492720453</v>
       </c>
       <c r="D28">
-        <v>98.25443791899666</v>
+        <v>57.27700567060892</v>
       </c>
       <c r="E28">
-        <v>17.55608429838497</v>
+        <v>10.23424449022132</v>
       </c>
       <c r="F28">
-        <v>164.0668357152581</v>
+        <v>95.64206237044503</v>
       </c>
       <c r="G28">
-        <v>160.9244687386653</v>
+        <v>93.81023293912898</v>
       </c>
       <c r="H28">
-        <v>10.78171611080431</v>
+        <v>6.285155438236308</v>
       </c>
       <c r="I28">
-        <v>598.6062195999983</v>
+        <v>348.9549435187587</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>181.4561740380418</v>
+        <v>105.7791030051221</v>
       </c>
       <c r="C29">
-        <v>0.2050227471722025</v>
+        <v>0.1195171363360436</v>
       </c>
       <c r="D29">
-        <v>117.2714259033186</v>
+        <v>68.36287773588811</v>
       </c>
       <c r="E29">
-        <v>13.4252409340591</v>
+        <v>7.82618696311042</v>
       </c>
       <c r="F29">
-        <v>183.6987647752034</v>
+        <v>107.0864117139171</v>
       </c>
       <c r="G29">
-        <v>203.8376604023094</v>
+        <v>118.82629505623</v>
       </c>
       <c r="H29">
-        <v>8.08628708310323</v>
+        <v>4.713866578677232</v>
       </c>
       <c r="I29">
-        <v>707.9805758832077</v>
+        <v>412.714258189281</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>158.1835885538958</v>
+        <v>92.21244852134078</v>
       </c>
       <c r="C30">
-        <v>0.275992159654888</v>
+        <v>0.1608884527600587</v>
       </c>
       <c r="D30">
-        <v>110.9324299085447</v>
+        <v>64.66758704746169</v>
       </c>
       <c r="E30">
-        <v>12.39253009297763</v>
+        <v>7.224172581332695</v>
       </c>
       <c r="F30">
-        <v>159.8599937738412</v>
+        <v>93.18970179684385</v>
       </c>
       <c r="G30">
-        <v>180.2354049873053</v>
+        <v>105.0674608918244</v>
       </c>
       <c r="H30">
-        <v>10.78171611080431</v>
+        <v>6.285155438236308</v>
       </c>
       <c r="I30">
-        <v>632.6616555870238</v>
+        <v>368.8074147297998</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>197.9044675381152</v>
+        <v>115.3675655726067</v>
       </c>
       <c r="C31">
-        <v>0.2681066693790341</v>
+        <v>0.156291639824057</v>
       </c>
       <c r="D31">
-        <v>158.4748998693495</v>
+        <v>92.38226721065955</v>
       </c>
       <c r="E31">
-        <v>17.55608429838497</v>
+        <v>10.23424449022132</v>
       </c>
       <c r="F31">
-        <v>148.6417485967296</v>
+        <v>86.6500736005741</v>
       </c>
       <c r="G31">
-        <v>160.9244687386653</v>
+        <v>93.81023293912898</v>
       </c>
       <c r="H31">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I31">
-        <v>686.4652047383247</v>
+        <v>400.1719643125738</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>246.1994569638621</v>
+        <v>143.5209237494762</v>
       </c>
       <c r="C32">
-        <v>0.2050227471722025</v>
+        <v>0.1195171363360436</v>
       </c>
       <c r="D32">
-        <v>212.3563658249284</v>
+        <v>123.7922380622838</v>
       </c>
       <c r="E32">
-        <v>24.78506018595526</v>
+        <v>14.44834516266539</v>
       </c>
       <c r="F32">
-        <v>157.0554324795633</v>
+        <v>91.55479474777644</v>
       </c>
       <c r="G32">
-        <v>128.7395749909323</v>
+        <v>75.04818635130319</v>
       </c>
       <c r="H32">
-        <v>18.86800319390754</v>
+        <v>10.99902201691354</v>
       </c>
       <c r="I32">
-        <v>788.2089163863211</v>
+        <v>459.4830272267546</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>293.9695008523727</v>
+        <v>171.3682671635537</v>
       </c>
       <c r="C33">
-        <v>0.2050227471722025</v>
+        <v>0.1195171363360436</v>
       </c>
       <c r="D33">
-        <v>139.4579118850276</v>
+        <v>81.29639514538043</v>
       </c>
       <c r="E33">
-        <v>37.1775902789329</v>
+        <v>21.67251774399809</v>
       </c>
       <c r="F33">
-        <v>103.7687678882829</v>
+        <v>60.49156081549514</v>
       </c>
       <c r="G33">
-        <v>98.70034082638144</v>
+        <v>57.53694286933245</v>
       </c>
       <c r="H33">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I33">
-        <v>678.6699925335719</v>
+        <v>395.6277785932139</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>304.8183752885912</v>
+        <v>177.6925722612562</v>
       </c>
       <c r="C34">
-        <v>0.1103968638619552</v>
+        <v>0.0643553811040235</v>
       </c>
       <c r="D34">
-        <v>95.08493992160966</v>
+        <v>55.42936032639573</v>
       </c>
       <c r="E34">
-        <v>46.47198784866612</v>
+        <v>27.09064717999761</v>
       </c>
       <c r="F34">
-        <v>63.1026291212531</v>
+        <v>36.78540860401731</v>
       </c>
       <c r="G34">
-        <v>113.7199579086568</v>
+        <v>66.29256461031783</v>
       </c>
       <c r="H34">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I34">
-        <v>624.6560014664894</v>
+        <v>364.1405527928683</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>204.5537776764426</v>
+        <v>119.2437525679727</v>
       </c>
       <c r="C35">
-        <v>0.1261678444136631</v>
+        <v>0.07354900697602684</v>
       </c>
       <c r="D35">
-        <v>47.54246996080483</v>
+        <v>27.71468016319787</v>
       </c>
       <c r="E35">
-        <v>38.21030112001436</v>
+        <v>22.27453212577581</v>
       </c>
       <c r="F35">
-        <v>65.90719041553102</v>
+        <v>38.42031565308475</v>
       </c>
       <c r="G35">
-        <v>128.7395749909323</v>
+        <v>75.04818635130319</v>
       </c>
       <c r="H35">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I35">
-        <v>486.4271965219892</v>
+        <v>283.5606602980898</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>173.5819909794961</v>
+        <v>101.1888815632412</v>
       </c>
       <c r="C36">
-        <v>0.141938824965371</v>
+        <v>0.08274263284803021</v>
       </c>
       <c r="D36">
-        <v>72.89845393990082</v>
+        <v>42.49584291690339</v>
       </c>
       <c r="E36">
-        <v>32.01403607352555</v>
+        <v>18.66244583510947</v>
       </c>
       <c r="F36">
-        <v>53.28666459128041</v>
+        <v>31.06323393228129</v>
       </c>
       <c r="G36">
-        <v>165.2157879050298</v>
+        <v>96.31183915083906</v>
       </c>
       <c r="H36">
-        <v>4.043143541551615</v>
+        <v>2.356933289338616</v>
       </c>
       <c r="I36">
-        <v>501.1820158557496</v>
+        <v>292.161919320561</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>148.0346415006591</v>
+        <v>86.29616310736093</v>
       </c>
       <c r="C37">
-        <v>0.1498243152412249</v>
+        <v>0.08733944578403188</v>
       </c>
       <c r="D37">
-        <v>66.55945794512679</v>
+        <v>38.80055222847701</v>
       </c>
       <c r="E37">
-        <v>14.45795177514057</v>
+        <v>8.428201344888144</v>
       </c>
       <c r="F37">
-        <v>33.65473553133499</v>
+        <v>19.61888458880923</v>
       </c>
       <c r="G37">
-        <v>94.409021660017</v>
+        <v>55.03533665762233</v>
       </c>
       <c r="I37">
-        <v>357.2656327275197</v>
+        <v>208.2664773729417</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>61.59360970240189</v>
+        <v>35.90573216760171</v>
       </c>
       <c r="C38">
-        <v>0.1261678444136631</v>
+        <v>0.07354900697602684</v>
       </c>
       <c r="D38">
-        <v>9.508493992160975</v>
+        <v>5.542936032639576</v>
       </c>
       <c r="E38">
-        <v>12.39253009297763</v>
+        <v>7.224172581332695</v>
       </c>
       <c r="F38">
-        <v>25.24105164850124</v>
+        <v>14.71416344160692</v>
       </c>
       <c r="G38">
-        <v>62.22412791228395</v>
+        <v>36.27329006979656</v>
       </c>
       <c r="I38">
-        <v>171.0859811927393</v>
+        <v>99.73384329995349</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>39.54589713847395</v>
+        <v>23.05311213033519</v>
       </c>
       <c r="C39">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D39">
-        <v>9.508493992160975</v>
+        <v>5.542936032639576</v>
       </c>
       <c r="E39">
-        <v>6.196265046488815</v>
+        <v>3.612086290666348</v>
       </c>
       <c r="F39">
-        <v>12.62052582425062</v>
+        <v>7.35708172080346</v>
       </c>
       <c r="G39">
-        <v>60.07846832910172</v>
+        <v>35.02248696394148</v>
       </c>
       <c r="I39">
-        <v>128.0206197429588</v>
+        <v>74.62907445481008</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>39.89586082996485</v>
+        <v>23.25712197219658</v>
       </c>
       <c r="C40">
-        <v>0.141938824965371</v>
+        <v>0.08274263284803021</v>
       </c>
       <c r="D40">
-        <v>6.33899599477398</v>
+        <v>3.695290688426383</v>
       </c>
       <c r="E40">
-        <v>7.228975887570285</v>
+        <v>4.214100672444072</v>
       </c>
       <c r="F40">
-        <v>21.03420970708438</v>
+        <v>12.26180286800577</v>
       </c>
       <c r="G40">
-        <v>87.97204291047042</v>
+        <v>51.28292734005717</v>
       </c>
       <c r="I40">
-        <v>162.6120241548293</v>
+        <v>94.793986173978</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>18.89803934050967</v>
+        <v>11.01653146051417</v>
       </c>
       <c r="C41">
-        <v>0.1340533346895171</v>
+        <v>0.0781458199120285</v>
       </c>
       <c r="D41">
-        <v>3.16949799738699</v>
+        <v>1.847645344213192</v>
       </c>
       <c r="E41">
-        <v>5.163554205407348</v>
+        <v>3.010071908888624</v>
       </c>
       <c r="F41">
-        <v>22.43649035422333</v>
+        <v>13.07925639253949</v>
       </c>
       <c r="G41">
-        <v>90.11770249365263</v>
+        <v>52.53373044591221</v>
       </c>
       <c r="I41">
-        <v>139.9193377258695</v>
+        <v>81.5653813719797</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>18.54807564901875</v>
+        <v>10.8125216186528</v>
       </c>
       <c r="C42">
-        <v>0.08674039303439338</v>
+        <v>0.05056494229601845</v>
       </c>
       <c r="F42">
-        <v>22.43649035422333</v>
+        <v>13.07925639253949</v>
       </c>
       <c r="G42">
-        <v>79.38940457774156</v>
+        <v>46.27971491663695</v>
       </c>
       <c r="I42">
-        <v>120.460710974018</v>
+        <v>70.22205787012525</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>15.39840242560047</v>
+        <v>8.976433041900428</v>
       </c>
       <c r="C43">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D43">
-        <v>3.16949799738699</v>
+        <v>1.847645344213192</v>
       </c>
       <c r="E43">
-        <v>3.098132523244407</v>
+        <v>1.806043145333174</v>
       </c>
       <c r="F43">
-        <v>21.03420970708438</v>
+        <v>12.26180286800577</v>
       </c>
       <c r="G43">
-        <v>107.2829791591103</v>
+        <v>62.54015529275262</v>
       </c>
       <c r="I43">
-        <v>150.0541912249092</v>
+        <v>87.4734510086292</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>25.02240394160076</v>
+        <v>14.5867036930882</v>
       </c>
       <c r="C44">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D44">
-        <v>12.67799198954796</v>
+        <v>7.390581376852767</v>
       </c>
       <c r="E44">
-        <v>4.130843364325877</v>
+        <v>2.408057527110898</v>
       </c>
       <c r="F44">
-        <v>35.05701617847394</v>
+        <v>20.43633811334296</v>
       </c>
       <c r="G44">
-        <v>148.0505112395721</v>
+        <v>86.30541430399862</v>
       </c>
       <c r="I44">
-        <v>224.9860796551758</v>
+        <v>131.1546758920095</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>72.26750229287497</v>
+        <v>42.1280323443736</v>
       </c>
       <c r="C45">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D45">
-        <v>41.20347396603089</v>
+        <v>24.01938947477149</v>
       </c>
       <c r="E45">
-        <v>18.58879513946645</v>
+        <v>10.83625887199904</v>
       </c>
       <c r="F45">
-        <v>63.1026291212531</v>
+        <v>36.78540860401731</v>
       </c>
       <c r="G45">
-        <v>311.1206395614196</v>
+        <v>181.3664503489827</v>
       </c>
       <c r="H45">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I45">
-        <v>507.6780675365507</v>
+        <v>295.9487649515397</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>163.7830076177504</v>
+        <v>95.47660599112272</v>
       </c>
       <c r="C46">
-        <v>0.02365647082756183</v>
+        <v>0.01379043880800503</v>
       </c>
       <c r="D46">
-        <v>98.25443791899666</v>
+        <v>57.27700567060892</v>
       </c>
       <c r="E46">
-        <v>49.57012037191052</v>
+        <v>28.89669032533078</v>
       </c>
       <c r="F46">
-        <v>133.216661478201</v>
+        <v>77.65808483070317</v>
       </c>
       <c r="G46">
-        <v>343.3055333091526</v>
+        <v>200.1284969368085</v>
       </c>
       <c r="H46">
-        <v>4.043143541551615</v>
+        <v>2.356933289338616</v>
       </c>
       <c r="I46">
-        <v>792.1965607083905</v>
+        <v>461.8076074827206</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>237.4503646765891</v>
+        <v>138.4206777029418</v>
       </c>
       <c r="C47">
-        <v>0.06308392220683155</v>
+        <v>0.03677450348801342</v>
       </c>
       <c r="D47">
-        <v>95.08493992160966</v>
+        <v>55.42936032639573</v>
       </c>
       <c r="E47">
-        <v>41.30843364325879</v>
+        <v>24.08057527110899</v>
       </c>
       <c r="F47">
-        <v>123.4006969482283</v>
+        <v>71.93591015896718</v>
       </c>
       <c r="G47">
-        <v>216.7116179014027</v>
+        <v>126.3311136913603</v>
       </c>
       <c r="H47">
-        <v>6.73857256925269</v>
+        <v>3.928222148897693</v>
       </c>
       <c r="I47">
-        <v>720.7577095825482</v>
+        <v>420.1626338031597</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>268.597133219281</v>
+        <v>156.5775536286041</v>
       </c>
       <c r="C48">
-        <v>0.1103968638619552</v>
+        <v>0.0643553811040235</v>
       </c>
       <c r="D48">
-        <v>104.5934339137707</v>
+        <v>60.97229635903531</v>
       </c>
       <c r="E48">
-        <v>33.04674691460701</v>
+        <v>19.26446021688719</v>
       </c>
       <c r="F48">
-        <v>141.6303453610348</v>
+        <v>82.5628059779055</v>
       </c>
       <c r="G48">
-        <v>195.2550220695806</v>
+        <v>113.8230826328098</v>
       </c>
       <c r="H48">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I48">
-        <v>745.9285073698371</v>
+        <v>434.8358430559051</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>192.829994011497</v>
+        <v>112.4094228656167</v>
       </c>
       <c r="C49">
-        <v>0.1340533346895171</v>
+        <v>0.0781458199120285</v>
       </c>
       <c r="D49">
-        <v>120.4409239007056</v>
+        <v>70.21052308010128</v>
       </c>
       <c r="E49">
-        <v>22.71963850379231</v>
+        <v>13.24431639910994</v>
       </c>
       <c r="F49">
-        <v>178.0896421866476</v>
+        <v>103.8165976157822</v>
       </c>
       <c r="G49">
-        <v>263.9161287314111</v>
+        <v>153.8487820201714</v>
       </c>
       <c r="H49">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I49">
-        <v>780.8258096964444</v>
+        <v>455.1790766602527</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_NOx.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>87.11220247480647</v>
+        <v>115.9988991676481</v>
       </c>
       <c r="C2">
-        <v>0.1241139492720453</v>
+        <v>0.2129082374480564</v>
       </c>
       <c r="D2">
-        <v>72.05816842431447</v>
+        <v>123.5808271903364</v>
       </c>
       <c r="E2">
-        <v>4.816115054221797</v>
+        <v>8.261686728651753</v>
       </c>
       <c r="F2">
-        <v>104.6340511403159</v>
+        <v>179.4447797346654</v>
       </c>
       <c r="G2">
-        <v>108.8198702093896</v>
+        <v>186.6353126360083</v>
       </c>
       <c r="H2">
-        <v>5.49951100845677</v>
+        <v>9.434001596953768</v>
       </c>
       <c r="I2">
-        <v>383.064032260777</v>
+        <v>623.5684152917117</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>89.45831565621229</v>
+        <v>119.1229912997978</v>
       </c>
       <c r="C3">
-        <v>0.1470980139520537</v>
+        <v>0.2523356888273262</v>
       </c>
       <c r="D3">
-        <v>55.42936032639573</v>
+        <v>95.06217476179714</v>
       </c>
       <c r="E3">
-        <v>6.622158199554971</v>
+        <v>11.35981925189616</v>
       </c>
       <c r="F3">
-        <v>90.73734122324271</v>
+        <v>155.6122699261551</v>
       </c>
       <c r="G3">
-        <v>92.5594298332739</v>
+        <v>158.7472774145359</v>
       </c>
       <c r="H3">
-        <v>2.356933289338616</v>
+        <v>4.043143541551615</v>
       </c>
       <c r="I3">
-        <v>337.3106365419703</v>
+        <v>544.200011884561</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>90.3763599445884</v>
+        <v>120.3454621341173</v>
       </c>
       <c r="C4">
-        <v>0.1746788915680638</v>
+        <v>0.2996486304824498</v>
       </c>
       <c r="D4">
-        <v>59.12465101482213</v>
+        <v>101.3996530792503</v>
       </c>
       <c r="E4">
-        <v>6.622158199554971</v>
+        <v>11.35981925189616</v>
       </c>
       <c r="F4">
-        <v>86.6500736005741</v>
+        <v>148.6027082177699</v>
       </c>
       <c r="G4">
-        <v>102.5658546801143</v>
+        <v>175.9091452431344</v>
       </c>
       <c r="H4">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I4">
-        <v>347.0850651907811</v>
+        <v>560.6118655843516</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>105.8811079260528</v>
+        <v>140.9916362248463</v>
       </c>
       <c r="C5">
-        <v>0.156291639824057</v>
+        <v>0.2681066693790341</v>
       </c>
       <c r="D5">
-        <v>83.14404048959365</v>
+        <v>142.5932621426958</v>
       </c>
       <c r="E5">
-        <v>9.030215726665867</v>
+        <v>15.49066261622204</v>
       </c>
       <c r="F5">
-        <v>112.8085863856531</v>
+        <v>193.4639031514362</v>
       </c>
       <c r="G5">
-        <v>107.5690671035345</v>
+        <v>184.4900791574336</v>
       </c>
       <c r="H5">
-        <v>6.285155438236308</v>
+        <v>10.78171611080431</v>
       </c>
       <c r="I5">
-        <v>424.8744647095602</v>
+        <v>688.0793660728172</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>103.7390045865083</v>
+        <v>138.1392042781009</v>
       </c>
       <c r="C6">
-        <v>0.1333075751440486</v>
+        <v>0.2286792179997643</v>
       </c>
       <c r="D6">
-        <v>73.90581376852768</v>
+        <v>126.7495663490629</v>
       </c>
       <c r="E6">
-        <v>7.82618696311042</v>
+        <v>13.4252409340591</v>
       </c>
       <c r="F6">
-        <v>109.5387722875182</v>
+        <v>187.8562537847279</v>
       </c>
       <c r="G6">
-        <v>108.8198702093896</v>
+        <v>186.6353126360083</v>
       </c>
       <c r="H6">
-        <v>4.713866578677232</v>
+        <v>8.08628708310323</v>
       </c>
       <c r="I6">
-        <v>408.6768219688755</v>
+        <v>661.120544283062</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>118.1216984377351</v>
+        <v>157.2912473491059</v>
       </c>
       <c r="C7">
-        <v>0.128710762208047</v>
+        <v>0.2207937277239103</v>
       </c>
       <c r="D7">
-        <v>79.44874980116721</v>
+        <v>136.2557838252426</v>
       </c>
       <c r="E7">
-        <v>8.428201344888144</v>
+        <v>14.45795177514057</v>
       </c>
       <c r="F7">
-        <v>89.91988769870898</v>
+        <v>154.210357584478</v>
       </c>
       <c r="G7">
-        <v>96.31183915083906</v>
+        <v>165.1829778502604</v>
       </c>
       <c r="H7">
-        <v>7.856444297795386</v>
+        <v>13.47714513850538</v>
       </c>
       <c r="I7">
-        <v>400.215531493342</v>
+        <v>641.0962572504567</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>131.1783283168631</v>
+        <v>174.6774992149829</v>
       </c>
       <c r="C8">
-        <v>0.1011298845920369</v>
+        <v>0.1734807860687868</v>
       </c>
       <c r="D8">
-        <v>109.0110753085783</v>
+        <v>186.9556103648678</v>
       </c>
       <c r="E8">
-        <v>13.84633078088767</v>
+        <v>23.75234934487379</v>
       </c>
       <c r="F8">
-        <v>96.45951589497872</v>
+        <v>165.4256563178946</v>
       </c>
       <c r="G8">
-        <v>67.54336771617288</v>
+        <v>115.8426078430397</v>
       </c>
       <c r="H8">
-        <v>8.642088727574924</v>
+        <v>14.82485965235592</v>
       </c>
       <c r="I8">
-        <v>426.7818366296477</v>
+        <v>681.6520635240836</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>152.0893371076539</v>
+        <v>202.5226682189265</v>
       </c>
       <c r="C9">
-        <v>0.0643553811040235</v>
+        <v>0.1103968638619552</v>
       </c>
       <c r="D9">
-        <v>90.53462186644636</v>
+        <v>155.268218777602</v>
       </c>
       <c r="E9">
-        <v>16.85640268977629</v>
+        <v>28.91590355028114</v>
       </c>
       <c r="F9">
-        <v>47.41230442295566</v>
+        <v>81.31091581727027</v>
       </c>
       <c r="G9">
-        <v>58.78774597518751</v>
+        <v>100.8259734930161</v>
       </c>
       <c r="H9">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I9">
-        <v>368.8873451622418</v>
+        <v>574.3449347763601</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>170.3482179542469</v>
+        <v>226.836254812614</v>
       </c>
       <c r="C10">
-        <v>0.05975856816802181</v>
+        <v>0.1025113735861012</v>
       </c>
       <c r="D10">
-        <v>57.27700567060892</v>
+        <v>98.2309139205237</v>
       </c>
       <c r="E10">
-        <v>24.6825896528867</v>
+        <v>42.34114448434024</v>
       </c>
       <c r="F10">
-        <v>31.880687456815</v>
+        <v>54.67458132540587</v>
       </c>
       <c r="G10">
-        <v>66.29256461031783</v>
+        <v>113.6973743644648</v>
       </c>
       <c r="H10">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I10">
-        <v>352.1121127726025</v>
+        <v>538.5782093086359</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>118.4277132005273</v>
+        <v>157.6987376272125</v>
       </c>
       <c r="C11">
-        <v>0.0781458199120285</v>
+        <v>0.1340533346895171</v>
       </c>
       <c r="D11">
-        <v>29.56232550741107</v>
+        <v>50.69982653962516</v>
       </c>
       <c r="E11">
-        <v>24.08057527110899</v>
+        <v>41.30843364325879</v>
       </c>
       <c r="F11">
-        <v>32.69814098134874</v>
+        <v>56.07649366708293</v>
       </c>
       <c r="G11">
-        <v>67.54336771617288</v>
+        <v>115.8426078430397</v>
       </c>
       <c r="H11">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I11">
-        <v>273.96155735604</v>
+        <v>424.4555816826096</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>93.94653217716237</v>
+        <v>125.0995153786931</v>
       </c>
       <c r="C12">
-        <v>0.09653307165603522</v>
+        <v>0.1655952957929328</v>
       </c>
       <c r="D12">
-        <v>44.3434882611166</v>
+        <v>76.04973980943777</v>
       </c>
       <c r="E12">
-        <v>18.06043145333173</v>
+        <v>30.98132523244407</v>
       </c>
       <c r="F12">
-        <v>22.07124516241039</v>
+        <v>37.85163322528101</v>
       </c>
       <c r="G12">
-        <v>93.81023293912898</v>
+        <v>160.8925108931108</v>
       </c>
       <c r="I12">
-        <v>272.3284630648061</v>
+        <v>431.0403198347595</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>83.1340105585097</v>
+        <v>110.7015255522637</v>
       </c>
       <c r="C13">
-        <v>0.1011298845920369</v>
+        <v>0.1734807860687868</v>
       </c>
       <c r="D13">
-        <v>33.25761619583742</v>
+        <v>57.0373048570783</v>
       </c>
       <c r="E13">
-        <v>6.020143817777248</v>
+        <v>10.3271084108147</v>
       </c>
       <c r="F13">
-        <v>22.88869868694411</v>
+        <v>39.25354556695806</v>
       </c>
       <c r="G13">
-        <v>55.03533665762233</v>
+        <v>94.39027305729162</v>
       </c>
       <c r="I13">
-        <v>200.4369358012829</v>
+        <v>311.8832382304752</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>52.73654412116502</v>
+        <v>70.22415792701881</v>
       </c>
       <c r="C14">
-        <v>0.08274263284803021</v>
+        <v>0.141938824965371</v>
       </c>
       <c r="D14">
-        <v>24.01938947477149</v>
+        <v>41.19360906344545</v>
       </c>
       <c r="E14">
-        <v>9.030215726665867</v>
+        <v>15.49066261622204</v>
       </c>
       <c r="F14">
-        <v>18.80143106427552</v>
+        <v>32.24398385857266</v>
       </c>
       <c r="G14">
-        <v>63.79095839860771</v>
+        <v>109.4069074073153</v>
       </c>
       <c r="I14">
-        <v>168.4612814183336</v>
+        <v>268.7012596975396</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>33.45761406526524</v>
+        <v>44.55227040630983</v>
       </c>
       <c r="C15">
-        <v>0.08274263284803021</v>
+        <v>0.141938824965371</v>
       </c>
       <c r="D15">
-        <v>5.542936032639576</v>
+        <v>9.506217476179721</v>
       </c>
       <c r="E15">
-        <v>5.418129435999521</v>
+        <v>9.294397569733224</v>
       </c>
       <c r="F15">
-        <v>8.991988769870897</v>
+        <v>15.42103575844781</v>
       </c>
       <c r="G15">
-        <v>46.27971491663695</v>
+        <v>79.37363870726796</v>
       </c>
       <c r="I15">
-        <v>99.77312585326021</v>
+        <v>158.2894987429039</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>16.42279226984055</v>
+        <v>21.86864492504841</v>
       </c>
       <c r="C16">
-        <v>0.0781458199120285</v>
+        <v>0.1340533346895171</v>
       </c>
       <c r="D16">
-        <v>1.847645344213192</v>
+        <v>3.168739158726572</v>
       </c>
       <c r="E16">
-        <v>4.214100672444072</v>
+        <v>7.228975887570285</v>
       </c>
       <c r="F16">
-        <v>16.34907049067437</v>
+        <v>28.03824683354146</v>
       </c>
       <c r="G16">
-        <v>43.77810870492684</v>
+        <v>75.0831717501183</v>
       </c>
       <c r="H16">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I16">
-        <v>83.47550773179059</v>
+        <v>136.8695464035451</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>11.62856098609829</v>
+        <v>15.4846305680467</v>
       </c>
       <c r="C17">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D17">
-        <v>3.695290688426383</v>
+        <v>6.337478317453145</v>
       </c>
       <c r="E17">
-        <v>2.408057527110898</v>
+        <v>4.130843364325877</v>
       </c>
       <c r="F17">
-        <v>17.16652401520808</v>
+        <v>29.44015917521854</v>
       </c>
       <c r="G17">
-        <v>42.5273055990718</v>
+        <v>72.93793827154352</v>
       </c>
       <c r="I17">
-        <v>77.46711013233946</v>
+        <v>128.4020191090705</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>8.058388753524245</v>
+        <v>10.73057732347097</v>
       </c>
       <c r="C18">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D18">
-        <v>5.542936032639576</v>
+        <v>9.506217476179721</v>
       </c>
       <c r="F18">
-        <v>14.71416344160692</v>
+        <v>25.23442215018732</v>
       </c>
       <c r="G18">
-        <v>37.52409317565159</v>
+        <v>64.35700435724431</v>
       </c>
       <c r="I18">
-        <v>65.86716228103835</v>
+        <v>109.8755342487374</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>7.344354307009446</v>
+        <v>9.779766674555811</v>
       </c>
       <c r="C19">
-        <v>0.04596812936001678</v>
+        <v>0.07885490275853942</v>
       </c>
       <c r="D19">
-        <v>5.542936032639576</v>
+        <v>9.506217476179721</v>
       </c>
       <c r="E19">
-        <v>1.204028763555449</v>
+        <v>2.065421682162938</v>
       </c>
       <c r="F19">
-        <v>13.8967099170732</v>
+        <v>23.83250980851024</v>
       </c>
       <c r="G19">
-        <v>57.53694286933245</v>
+        <v>98.68074001444118</v>
       </c>
       <c r="I19">
-        <v>85.57094001897013</v>
+        <v>143.9435105586084</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>12.64861019540515</v>
+        <v>16.84293149506835</v>
       </c>
       <c r="C20">
-        <v>0.04596812936001678</v>
+        <v>0.07885490275853942</v>
       </c>
       <c r="D20">
-        <v>5.542936032639576</v>
+        <v>9.506217476179721</v>
       </c>
       <c r="E20">
-        <v>2.408057527110898</v>
+        <v>4.130843364325877</v>
       </c>
       <c r="F20">
-        <v>21.25379163787667</v>
+        <v>36.44972088360392</v>
       </c>
       <c r="G20">
-        <v>105.0674608918244</v>
+        <v>180.199612200284</v>
       </c>
       <c r="H20">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I20">
-        <v>147.7524688439963</v>
+        <v>248.555894836071</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>41.5160028187895</v>
+        <v>55.28284772978077</v>
       </c>
       <c r="C21">
-        <v>0.04596812936001678</v>
+        <v>0.07885490275853942</v>
       </c>
       <c r="D21">
-        <v>18.47645344213192</v>
+        <v>31.68739158726572</v>
       </c>
       <c r="E21">
-        <v>12.0402876355545</v>
+        <v>20.65421682162939</v>
       </c>
       <c r="F21">
-        <v>25.34105926054527</v>
+        <v>43.45928259198926</v>
       </c>
       <c r="G21">
-        <v>152.5979789143165</v>
+        <v>261.7184843861268</v>
       </c>
       <c r="H21">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I21">
-        <v>250.8033946304772</v>
+        <v>414.228792533401</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>92.72247312599423</v>
+        <v>123.4695542662671</v>
       </c>
       <c r="C22">
-        <v>0.03677450348801342</v>
+        <v>0.06308392220683155</v>
       </c>
       <c r="D22">
-        <v>49.88642429375616</v>
+        <v>85.55595728561744</v>
       </c>
       <c r="E22">
-        <v>25.88661841644216</v>
+        <v>44.40656616650318</v>
       </c>
       <c r="F22">
-        <v>70.30100310989972</v>
+        <v>120.5644613842283</v>
       </c>
       <c r="G22">
-        <v>165.1060099728669</v>
+        <v>283.1708191718748</v>
       </c>
       <c r="H22">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I22">
-        <v>407.0818811415654</v>
+        <v>662.6213002520998</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>144.7449828006444</v>
+        <v>192.7429015443708</v>
       </c>
       <c r="C23">
-        <v>0.0643553811040235</v>
+        <v>0.1103968638619552</v>
       </c>
       <c r="D23">
-        <v>72.05816842431447</v>
+        <v>123.5808271903364</v>
       </c>
       <c r="E23">
-        <v>23.47856088933126</v>
+        <v>40.2757228021773</v>
       </c>
       <c r="F23">
-        <v>77.65808483070317</v>
+        <v>133.181672459322</v>
       </c>
       <c r="G23">
-        <v>140.0899478557659</v>
+        <v>240.2661496003786</v>
       </c>
       <c r="H23">
-        <v>4.713866578677232</v>
+        <v>8.08628708310323</v>
       </c>
       <c r="I23">
-        <v>462.8079667605405</v>
+        <v>738.2439575435502</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>171.3682671635537</v>
+        <v>228.1945557396357</v>
       </c>
       <c r="C24">
-        <v>0.1379043880800503</v>
+        <v>0.2365647082756183</v>
       </c>
       <c r="D24">
-        <v>81.29639514538043</v>
+        <v>139.4245229839692</v>
       </c>
       <c r="E24">
-        <v>25.28460403466443</v>
+        <v>43.37385532542171</v>
       </c>
       <c r="F24">
-        <v>102.9991440912485</v>
+        <v>176.6409550513112</v>
       </c>
       <c r="G24">
-        <v>136.3375385382008</v>
+        <v>233.8304491646541</v>
       </c>
       <c r="H24">
-        <v>5.49951100845677</v>
+        <v>9.434001596953768</v>
       </c>
       <c r="I24">
-        <v>522.9233643695846</v>
+        <v>831.1349045702214</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>110.9813539725871</v>
+        <v>147.7831408599543</v>
       </c>
       <c r="C25">
-        <v>0.09193625872003355</v>
+        <v>0.1577098055170788</v>
       </c>
       <c r="D25">
-        <v>84.99168583380678</v>
+        <v>145.7620013014223</v>
       </c>
       <c r="E25">
-        <v>13.24431639910994</v>
+        <v>22.71963850379231</v>
       </c>
       <c r="F25">
-        <v>95.64206237044503</v>
+        <v>164.0237439762176</v>
       </c>
       <c r="G25">
-        <v>145.0931602791862</v>
+        <v>248.8470835146778</v>
       </c>
       <c r="H25">
-        <v>6.285155438236308</v>
+        <v>10.78171611080431</v>
       </c>
       <c r="I25">
-        <v>456.3296705520915</v>
+        <v>740.0750340723857</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>91.29440423296457</v>
+        <v>121.5679329684368</v>
       </c>
       <c r="C26">
-        <v>0.1241139492720453</v>
+        <v>0.2129082374480564</v>
       </c>
       <c r="D26">
-        <v>72.05816842431447</v>
+        <v>123.5808271903364</v>
       </c>
       <c r="E26">
-        <v>5.418129435999521</v>
+        <v>9.294397569733224</v>
       </c>
       <c r="F26">
-        <v>117.7133075328554</v>
+        <v>201.8753772014985</v>
       </c>
       <c r="G26">
-        <v>118.82629505623</v>
+        <v>203.7971804646069</v>
       </c>
       <c r="H26">
-        <v>5.49951100845677</v>
+        <v>9.434001596953768</v>
       </c>
       <c r="I26">
-        <v>410.9339296400927</v>
+        <v>669.7626252290137</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>90.98838947017254</v>
+        <v>121.1604426903303</v>
       </c>
       <c r="C27">
-        <v>0.1425012010160521</v>
+        <v>0.2444501985514722</v>
       </c>
       <c r="D27">
-        <v>53.58171498218255</v>
+        <v>91.89343560307061</v>
       </c>
       <c r="E27">
-        <v>6.622158199554971</v>
+        <v>11.35981925189616</v>
       </c>
       <c r="F27">
-        <v>128.3402033517937</v>
+        <v>220.1002376433005</v>
       </c>
       <c r="G27">
-        <v>120.077098162085</v>
+        <v>205.9424139431817</v>
       </c>
       <c r="H27">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I27">
-        <v>402.894643085923</v>
+        <v>656.091657385733</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>85.58212866084615</v>
+        <v>113.9614477771156</v>
       </c>
       <c r="C28">
-        <v>0.1241139492720453</v>
+        <v>0.2129082374480564</v>
       </c>
       <c r="D28">
-        <v>57.27700567060892</v>
+        <v>98.2309139205237</v>
       </c>
       <c r="E28">
-        <v>10.23424449022132</v>
+        <v>17.55608429838497</v>
       </c>
       <c r="F28">
-        <v>95.64206237044503</v>
+        <v>164.0237439762176</v>
       </c>
       <c r="G28">
-        <v>93.81023293912898</v>
+        <v>160.8925108931108</v>
       </c>
       <c r="H28">
-        <v>6.285155438236308</v>
+        <v>10.78171611080431</v>
       </c>
       <c r="I28">
-        <v>348.9549435187587</v>
+        <v>565.659325213605</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>105.7791030051221</v>
+        <v>140.855806132144</v>
       </c>
       <c r="C29">
-        <v>0.1195171363360436</v>
+        <v>0.2050227471722025</v>
       </c>
       <c r="D29">
-        <v>68.36287773588811</v>
+        <v>117.2433488728832</v>
       </c>
       <c r="E29">
-        <v>7.82618696311042</v>
+        <v>13.4252409340591</v>
       </c>
       <c r="F29">
-        <v>107.0864117139171</v>
+        <v>183.6505167596966</v>
       </c>
       <c r="G29">
-        <v>118.82629505623</v>
+        <v>203.7971804646069</v>
       </c>
       <c r="H29">
-        <v>4.713866578677232</v>
+        <v>8.08628708310323</v>
       </c>
       <c r="I29">
-        <v>412.714258189281</v>
+        <v>667.2634029936652</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>92.21244852134078</v>
+        <v>122.7904038027563</v>
       </c>
       <c r="C30">
-        <v>0.1608884527600587</v>
+        <v>0.275992159654888</v>
       </c>
       <c r="D30">
-        <v>64.66758704746169</v>
+        <v>110.90587055543</v>
       </c>
       <c r="E30">
-        <v>7.224172581332695</v>
+        <v>12.39253009297763</v>
       </c>
       <c r="F30">
-        <v>93.18970179684385</v>
+        <v>159.8180069511863</v>
       </c>
       <c r="G30">
-        <v>105.0674608918244</v>
+        <v>180.199612200284</v>
       </c>
       <c r="H30">
-        <v>6.285155438236308</v>
+        <v>10.78171611080431</v>
       </c>
       <c r="I30">
-        <v>368.8074147297998</v>
+        <v>597.1641318730934</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>115.3675655726067</v>
+        <v>153.6238348461476</v>
       </c>
       <c r="C31">
-        <v>0.156291639824057</v>
+        <v>0.2681066693790341</v>
       </c>
       <c r="D31">
-        <v>92.38226721065955</v>
+        <v>158.4369579363287</v>
       </c>
       <c r="E31">
-        <v>10.23424449022132</v>
+        <v>17.55608429838497</v>
       </c>
       <c r="F31">
-        <v>86.6500736005741</v>
+        <v>148.6027082177699</v>
       </c>
       <c r="G31">
-        <v>93.81023293912898</v>
+        <v>160.8925108931108</v>
       </c>
       <c r="H31">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I31">
-        <v>400.1719643125738</v>
+        <v>642.0756318888219</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>143.5209237494762</v>
+        <v>191.1129404319448</v>
       </c>
       <c r="C32">
-        <v>0.1195171363360436</v>
+        <v>0.2050227471722025</v>
       </c>
       <c r="D32">
-        <v>123.7922380622838</v>
+        <v>212.3055236346805</v>
       </c>
       <c r="E32">
-        <v>14.44834516266539</v>
+        <v>24.78506018595526</v>
       </c>
       <c r="F32">
-        <v>91.55479474777644</v>
+        <v>157.0141822678322</v>
       </c>
       <c r="G32">
-        <v>75.04818635130319</v>
+        <v>128.7140087144886</v>
       </c>
       <c r="H32">
-        <v>10.99902201691354</v>
+        <v>18.86800319390754</v>
       </c>
       <c r="I32">
-        <v>459.4830272267546</v>
+        <v>733.0047411759811</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>171.3682671635537</v>
+        <v>228.1945557396357</v>
       </c>
       <c r="C33">
-        <v>0.1195171363360436</v>
+        <v>0.2050227471722025</v>
       </c>
       <c r="D33">
-        <v>81.29639514538043</v>
+        <v>139.4245229839692</v>
       </c>
       <c r="E33">
-        <v>21.67251774399809</v>
+        <v>37.1775902789329</v>
       </c>
       <c r="F33">
-        <v>60.49156081549514</v>
+        <v>103.7415132841034</v>
       </c>
       <c r="G33">
-        <v>57.53694286933245</v>
+        <v>98.68074001444118</v>
       </c>
       <c r="H33">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I33">
-        <v>395.6277785932139</v>
+        <v>612.8148031036567</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>177.6925722612562</v>
+        <v>236.6160214871698</v>
       </c>
       <c r="C34">
-        <v>0.0643553811040235</v>
+        <v>0.1103968638619552</v>
       </c>
       <c r="D34">
-        <v>55.42936032639573</v>
+        <v>95.06217476179714</v>
       </c>
       <c r="E34">
-        <v>27.09064717999761</v>
+        <v>46.47198784866612</v>
       </c>
       <c r="F34">
-        <v>36.78540860401731</v>
+        <v>63.0860553754683</v>
       </c>
       <c r="G34">
-        <v>66.29256461031783</v>
+        <v>113.6973743644648</v>
       </c>
       <c r="H34">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I34">
-        <v>364.1405527928683</v>
+        <v>556.3917252152786</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>119.2437525679727</v>
+        <v>158.7853783688298</v>
       </c>
       <c r="C35">
-        <v>0.07354900697602684</v>
+        <v>0.1261678444136631</v>
       </c>
       <c r="D35">
-        <v>27.71468016319787</v>
+        <v>47.53108738089857</v>
       </c>
       <c r="E35">
-        <v>22.27453212577581</v>
+        <v>38.21030112001436</v>
       </c>
       <c r="F35">
-        <v>38.42031565308475</v>
+        <v>65.88988005882244</v>
       </c>
       <c r="G35">
-        <v>75.04818635130319</v>
+        <v>128.7140087144886</v>
       </c>
       <c r="H35">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I35">
-        <v>283.5606602980898</v>
+        <v>440.6045380013179</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>101.1888815632412</v>
+        <v>134.7434519605468</v>
       </c>
       <c r="C36">
-        <v>0.08274263284803021</v>
+        <v>0.141938824965371</v>
       </c>
       <c r="D36">
-        <v>42.49584291690339</v>
+        <v>72.88100065071116</v>
       </c>
       <c r="E36">
-        <v>18.66244583510947</v>
+        <v>32.01403607352555</v>
       </c>
       <c r="F36">
-        <v>31.06323393228129</v>
+        <v>53.27266898372881</v>
       </c>
       <c r="G36">
-        <v>96.31183915083906</v>
+        <v>165.1829778502604</v>
       </c>
       <c r="H36">
-        <v>2.356933289338616</v>
+        <v>4.043143541551615</v>
       </c>
       <c r="I36">
-        <v>292.161919320561</v>
+        <v>462.2792178852897</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>86.29616310736093</v>
+        <v>114.9122584260308</v>
       </c>
       <c r="C37">
-        <v>0.08733944578403188</v>
+        <v>0.1498243152412249</v>
       </c>
       <c r="D37">
-        <v>38.80055222847701</v>
+        <v>66.54352233325803</v>
       </c>
       <c r="E37">
-        <v>8.428201344888144</v>
+        <v>14.45795177514057</v>
       </c>
       <c r="F37">
-        <v>19.61888458880923</v>
+        <v>33.64589620024976</v>
       </c>
       <c r="G37">
-        <v>55.03533665762233</v>
+        <v>94.39027305729162</v>
       </c>
       <c r="I37">
-        <v>208.2664773729417</v>
+        <v>324.099726107212</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>35.90573216760171</v>
+        <v>47.81219263116176</v>
       </c>
       <c r="C38">
-        <v>0.07354900697602684</v>
+        <v>0.1261678444136631</v>
       </c>
       <c r="D38">
-        <v>5.542936032639576</v>
+        <v>9.506217476179721</v>
       </c>
       <c r="E38">
-        <v>7.224172581332695</v>
+        <v>12.39253009297763</v>
       </c>
       <c r="F38">
-        <v>14.71416344160692</v>
+        <v>25.23442215018732</v>
       </c>
       <c r="G38">
-        <v>36.27329006979656</v>
+        <v>62.21177087866946</v>
       </c>
       <c r="I38">
-        <v>99.73384329995349</v>
+        <v>157.2833010735896</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>23.05311213033519</v>
+        <v>30.69760095068908</v>
       </c>
       <c r="C39">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D39">
-        <v>5.542936032639576</v>
+        <v>9.506217476179721</v>
       </c>
       <c r="E39">
-        <v>3.612086290666348</v>
+        <v>6.196265046488815</v>
       </c>
       <c r="F39">
-        <v>7.35708172080346</v>
+        <v>12.61721107509366</v>
       </c>
       <c r="G39">
-        <v>35.02248696394148</v>
+        <v>60.06653740009465</v>
       </c>
       <c r="I39">
-        <v>74.62907445481008</v>
+        <v>119.1548013610286</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>23.25712197219658</v>
+        <v>30.96926113609341</v>
       </c>
       <c r="C40">
-        <v>0.08274263284803021</v>
+        <v>0.141938824965371</v>
       </c>
       <c r="D40">
-        <v>3.695290688426383</v>
+        <v>6.337478317453145</v>
       </c>
       <c r="E40">
-        <v>4.214100672444072</v>
+        <v>7.228975887570285</v>
       </c>
       <c r="F40">
-        <v>12.26180286800577</v>
+        <v>21.0286851251561</v>
       </c>
       <c r="G40">
-        <v>51.28292734005717</v>
+        <v>87.95457262156721</v>
       </c>
       <c r="I40">
-        <v>94.793986173978</v>
+        <v>153.6609119128055</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>11.01653146051417</v>
+        <v>14.66965001183371</v>
       </c>
       <c r="C41">
-        <v>0.0781458199120285</v>
+        <v>0.1340533346895171</v>
       </c>
       <c r="D41">
-        <v>1.847645344213192</v>
+        <v>3.168739158726572</v>
       </c>
       <c r="E41">
-        <v>3.010071908888624</v>
+        <v>5.163554205407348</v>
       </c>
       <c r="F41">
-        <v>13.07925639253949</v>
+        <v>22.43059746683317</v>
       </c>
       <c r="G41">
-        <v>52.53373044591221</v>
+        <v>90.099806100142</v>
       </c>
       <c r="I41">
-        <v>81.5653813719797</v>
+        <v>135.6664002776323</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>10.8125216186528</v>
+        <v>14.39798982642938</v>
       </c>
       <c r="C42">
-        <v>0.05056494229601845</v>
+        <v>0.08674039303439338</v>
       </c>
       <c r="F42">
-        <v>13.07925639253949</v>
+        <v>22.43059746683317</v>
       </c>
       <c r="G42">
-        <v>46.27971491663695</v>
+        <v>79.37363870726796</v>
       </c>
       <c r="I42">
-        <v>70.22205787012525</v>
+        <v>116.2889663935649</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>8.976433041900428</v>
+        <v>11.95304815779044</v>
       </c>
       <c r="C43">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D43">
-        <v>1.847645344213192</v>
+        <v>3.168739158726572</v>
       </c>
       <c r="E43">
-        <v>1.806043145333174</v>
+        <v>3.098132523244407</v>
       </c>
       <c r="F43">
-        <v>12.26180286800577</v>
+        <v>21.0286851251561</v>
       </c>
       <c r="G43">
-        <v>62.54015529275262</v>
+        <v>107.2616739287405</v>
       </c>
       <c r="I43">
-        <v>87.4734510086292</v>
+        <v>146.5812483061407</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>14.5867036930882</v>
+        <v>19.42370325640945</v>
       </c>
       <c r="C44">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D44">
-        <v>7.390581376852767</v>
+        <v>12.67495663490629</v>
       </c>
       <c r="E44">
-        <v>2.408057527110898</v>
+        <v>4.130843364325877</v>
       </c>
       <c r="F44">
-        <v>20.43633811334296</v>
+        <v>35.04780854192683</v>
       </c>
       <c r="G44">
-        <v>86.30541430399862</v>
+        <v>148.0211100216618</v>
       </c>
       <c r="I44">
-        <v>131.1546758920095</v>
+        <v>219.3457347608854</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>42.1280323443736</v>
+        <v>56.09782828599376</v>
       </c>
       <c r="C45">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D45">
-        <v>24.01938947477149</v>
+        <v>41.19360906344545</v>
       </c>
       <c r="E45">
-        <v>10.83625887199904</v>
+        <v>18.58879513946645</v>
       </c>
       <c r="F45">
-        <v>36.78540860401731</v>
+        <v>63.0860553754683</v>
       </c>
       <c r="G45">
-        <v>181.3664503489827</v>
+        <v>311.0588543933474</v>
       </c>
       <c r="H45">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I45">
-        <v>295.9487649515397</v>
+        <v>491.420169713227</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>95.47660599112272</v>
+        <v>127.1369667692255</v>
       </c>
       <c r="C46">
-        <v>0.01379043880800503</v>
+        <v>0.02365647082756183</v>
       </c>
       <c r="D46">
-        <v>57.27700567060892</v>
+        <v>98.2309139205237</v>
       </c>
       <c r="E46">
-        <v>28.89669032533078</v>
+        <v>49.57012037191052</v>
       </c>
       <c r="F46">
-        <v>77.65808483070317</v>
+        <v>133.181672459322</v>
       </c>
       <c r="G46">
-        <v>200.1284969368085</v>
+        <v>343.2373565719693</v>
       </c>
       <c r="H46">
-        <v>2.356933289338616</v>
+        <v>4.043143541551615</v>
       </c>
       <c r="I46">
-        <v>461.8076074827206</v>
+        <v>755.4238301053301</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>138.4206777029418</v>
+        <v>184.3214357968366</v>
       </c>
       <c r="C47">
-        <v>0.03677450348801342</v>
+        <v>0.06308392220683155</v>
       </c>
       <c r="D47">
-        <v>55.42936032639573</v>
+        <v>95.06217476179714</v>
       </c>
       <c r="E47">
-        <v>24.08057527110899</v>
+        <v>41.30843364325879</v>
       </c>
       <c r="F47">
-        <v>71.93591015896718</v>
+        <v>123.3682860675824</v>
       </c>
       <c r="G47">
-        <v>126.3311136913603</v>
+        <v>216.6685813360558</v>
       </c>
       <c r="H47">
-        <v>3.928222148897693</v>
+        <v>6.73857256925269</v>
       </c>
       <c r="I47">
-        <v>420.1626338031597</v>
+        <v>667.5305680969902</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>156.5775536286041</v>
+        <v>208.4991922978218</v>
       </c>
       <c r="C48">
-        <v>0.0643553811040235</v>
+        <v>0.1103968638619552</v>
       </c>
       <c r="D48">
-        <v>60.97229635903531</v>
+        <v>104.5683922379769</v>
       </c>
       <c r="E48">
-        <v>19.26446021688719</v>
+        <v>33.04674691460701</v>
       </c>
       <c r="F48">
-        <v>82.5628059779055</v>
+        <v>141.5931465093844</v>
       </c>
       <c r="G48">
-        <v>113.8230826328098</v>
+        <v>195.2162465503075</v>
       </c>
       <c r="H48">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I48">
-        <v>434.8358430559051</v>
+        <v>685.7295504016606</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>112.4094228656167</v>
+        <v>149.684762157785</v>
       </c>
       <c r="C49">
-        <v>0.0781458199120285</v>
+        <v>0.1340533346895171</v>
       </c>
       <c r="D49">
-        <v>70.21052308010128</v>
+        <v>120.4120880316097</v>
       </c>
       <c r="E49">
-        <v>13.24431639910994</v>
+        <v>22.71963850379231</v>
       </c>
       <c r="F49">
-        <v>103.8165976157822</v>
+        <v>178.0428673929883</v>
       </c>
       <c r="G49">
-        <v>153.8487820201714</v>
+        <v>263.8637178647014</v>
       </c>
       <c r="H49">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I49">
-        <v>455.1790766602527</v>
+        <v>737.5525563132672</v>
       </c>
     </row>
   </sheetData>
